--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11580"/>
@@ -25,23 +25,12 @@
     <definedName name="Slicer_TAKEN">#N/A</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
-      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId4"/>
-        <x14:slicerCache r:id="rId5"/>
-        <x14:slicerCache r:id="rId6"/>
-      </x15:slicerCaches>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>NAME</t>
   </si>
@@ -113,9 +102,6 @@
   </si>
   <si>
     <t>5f2199f4cf52f8fa4d90707a6073c41afae61bcf</t>
-  </si>
-  <si>
-    <t>0. Version added to README.md</t>
   </si>
   <si>
     <t>First update from GitKraken</t>
@@ -215,9 +201,6 @@
     <t>#0</t>
   </si>
   <si>
-    <t>2. Generated jhipster in "barbican" folder</t>
-  </si>
-  <si>
     <t>Application files will be generated in folder: C:\Users\Staff2\dev\Pirate-Castle\barbican
 ? Which *type* of application would you like to create? Microservice gateway
 ? What is the base name of your application? barbican
@@ -283,13 +266,58 @@
       <t>10 deletions.</t>
     </r>
   </si>
+  <si>
+    <t>3. Added "registry" files from github</t>
+  </si>
+  <si>
+    <t>Add "version": "3.2.4", to registry folder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>291 changed files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>1 parent 5a16089</t>
+  </si>
+  <si>
+    <t>157613ac95fb783a249dd083f17e13a22ce90a40</t>
+  </si>
+  <si>
+    <t>30,857 additions and 4 deletions.</t>
+  </si>
+  <si>
+    <t>2. Generated jhipster in "barbican" folder </t>
+  </si>
+  <si>
+    <t>0. Version added to README.md </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -334,12 +362,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF05264C"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF05264C"/>
       <name val="Segoe UI"/>
@@ -364,12 +386,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF444D56"/>
       <name val="Consolas"/>
@@ -379,6 +395,19 @@
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -427,7 +456,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,10 +500,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -486,22 +515,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,100 +543,33 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="30">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -680,33 +645,68 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1117,202 +1117,33 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="Employee Training Tracker - Log" defaultPivotStyle="PivotTable Style 1">
     <tableStyle name="Employee Training Tracker" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Info" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Log" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
     </tableStyle>
     <tableStyle name="PivotTable Style 1" table="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="8">
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <color theme="4"/>
-            <name val="Century Gothic"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor indexed="64"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </left>
-            <right style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </right>
-            <top style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <color theme="0"/>
-            <name val="Century Gothic"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="4" tint="0.59999389629810485"/>
-              <bgColor theme="4"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left/>
-            <right/>
-            <top/>
-            <bottom/>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <color theme="4"/>
-            <name val="Century Gothic"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor indexed="64"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </left>
-            <right style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </right>
-            <top style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <color theme="4"/>
-            <name val="Century Gothic"/>
-            <scheme val="major"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor indexed="64"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-          <border diagonalUp="0" diagonalDown="0">
-            <left style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </left>
-            <right style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </right>
-            <top style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0" tint="-0.14996795556505021"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-      </x14:dxfs>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="Employee Training Tracker">
-        <x14:slicerStyle name="Employee Training Tracker">
-          <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
-            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
-            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
-          </x14:slicerStyleElements>
-        </x14:slicerStyle>
-      </x14:slicerStyles>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2592,53 +2423,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_NAME" sourceName="NAME">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="5" column="1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_COURSE" sourceName="COURSE">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="5" column="2"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_TAKEN" sourceName="TAKEN">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="5" column="7"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="NAME" cache="Slicer_NAME" caption="NAME" rowHeight="225425"/>
-  <slicer name="COURSE" cache="Slicer_COURSE" caption="COURSE" rowHeight="225425"/>
-  <slicer name="TAKEN" cache="Slicer_TAKEN" caption="TAKEN" rowHeight="225425"/>
-</slicers>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblTrainingLog" displayName="tblTrainingLog" ref="C12:M55" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="C12:M55">
@@ -2650,8 +2434,8 @@
     <filterColumn colId="10"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="3"/>
-    <tableColumn id="3" name="TIME" dataDxfId="4"/>
+    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="11"/>
+    <tableColumn id="3" name="TIME" dataDxfId="10"/>
     <tableColumn id="1" name="DEVELOPER"/>
     <tableColumn id="2" name="FEATURE"/>
     <tableColumn id="5" name="DETAILS"/>
@@ -2663,11 +2447,6 @@
     <tableColumn id="11" name="Changes"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - Log" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="Training Log" altTextSummary="List of training information such as Name, Course, Instructor, Date of Training, Taken, Pass/Fail, and Notes. "/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -2678,36 +2457,26 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="FEATURE"/>
-    <tableColumn id="2" name="DESCRIPTION" dataDxfId="14"/>
+    <tableColumn id="2" name="DESCRIPTION" dataDxfId="8"/>
     <tableColumn id="3" name="FILE" dataDxfId="7"/>
-    <tableColumn id="4" name="HOURS" dataDxfId="13"/>
+    <tableColumn id="4" name="HOURS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - List" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="Course List" altTextSummary="List of courses and information for each course such as Instructor, Description, and Hours. Information in this table also appears as choices in the various drop down lists on the Training Log sheet."/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="12" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="4" headerRowCellStyle="Heading 2">
   <autoFilter ref="C5:F50">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="NAME" dataDxfId="11"/>
-    <tableColumn id="2" name="Department" dataDxfId="10"/>
-    <tableColumn id="4" name="Title" dataDxfId="5"/>
-    <tableColumn id="3" name="HOURS" dataDxfId="9"/>
+    <tableColumn id="1" name="NAME" dataDxfId="3"/>
+    <tableColumn id="2" name="Department" dataDxfId="2"/>
+    <tableColumn id="4" name="Title" dataDxfId="1"/>
+    <tableColumn id="3" name="HOURS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - Info" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="Personal Info" altTextSummary="Use this to enter names, departments and titles.  Used with data validation in Training Log."/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -2944,8 +2713,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3014,7 +2783,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="18" customHeight="1">
@@ -3027,25 +2796,25 @@
       <c r="E13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>44</v>
+      <c r="H13" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3059,29 +2828,29 @@
       <c r="E14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>45</v>
+      <c r="H14" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>28</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="21" customHeight="1">
@@ -3094,29 +2863,29 @@
       <c r="E15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>46</v>
+      <c r="H15" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="M15" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="18" customHeight="1">
@@ -3129,32 +2898,32 @@
       <c r="E16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>43</v>
+      <c r="F16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="18" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="18" customHeight="1">
       <c r="C17" s="17">
         <v>43141</v>
       </c>
@@ -3164,12 +2933,32 @@
       <c r="E17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="I17" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" ht="18" customHeight="1">
+      <c r="J17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="18" customHeight="1">
       <c r="C18" s="17">
         <v>43141</v>
       </c>
@@ -3179,12 +2968,12 @@
       <c r="E18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="I18" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="18" customHeight="1">
+    <row r="19" spans="3:13" ht="18" customHeight="1">
       <c r="C19" s="17">
         <v>43141</v>
       </c>
@@ -3194,12 +2983,12 @@
       <c r="E19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="I19" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="18" customHeight="1">
+    <row r="20" spans="3:13" ht="18" customHeight="1">
       <c r="C20" s="17">
         <v>43141</v>
       </c>
@@ -3209,12 +2998,12 @@
       <c r="E20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="I20" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="18" customHeight="1">
+    <row r="21" spans="3:13" ht="18" customHeight="1">
       <c r="C21" s="17">
         <v>43141</v>
       </c>
@@ -3224,12 +3013,12 @@
       <c r="E21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="20"/>
       <c r="I21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="18" customHeight="1">
+    <row r="22" spans="3:13" ht="18" customHeight="1">
       <c r="C22" s="17">
         <v>43141</v>
       </c>
@@ -3239,12 +3028,12 @@
       <c r="E22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="I22" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="18" customHeight="1">
+    <row r="23" spans="3:13" ht="18" customHeight="1">
       <c r="C23" s="17">
         <v>43141</v>
       </c>
@@ -3254,12 +3043,12 @@
       <c r="E23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="18" customHeight="1">
+    <row r="24" spans="3:13" ht="18" customHeight="1">
       <c r="C24" s="17">
         <v>43141</v>
       </c>
@@ -3269,12 +3058,12 @@
       <c r="E24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="20"/>
       <c r="I24" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="18" customHeight="1">
+    <row r="25" spans="3:13" ht="18" customHeight="1">
       <c r="C25" s="17">
         <v>43141</v>
       </c>
@@ -3284,12 +3073,12 @@
       <c r="E25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="20"/>
       <c r="I25" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="18" customHeight="1">
+    <row r="26" spans="3:13" ht="18" customHeight="1">
       <c r="C26" s="17">
         <v>43141</v>
       </c>
@@ -3299,12 +3088,12 @@
       <c r="E26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="20"/>
       <c r="I26" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="18" customHeight="1">
+    <row r="27" spans="3:13" ht="18" customHeight="1">
       <c r="C27" s="17">
         <v>43141</v>
       </c>
@@ -3314,12 +3103,12 @@
       <c r="E27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="20"/>
       <c r="I27" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="18" customHeight="1">
+    <row r="28" spans="3:13" ht="18" customHeight="1">
       <c r="C28" s="17">
         <v>43141</v>
       </c>
@@ -3329,12 +3118,12 @@
       <c r="E28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="20"/>
       <c r="I28" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="18" customHeight="1">
+    <row r="29" spans="3:13" ht="18" customHeight="1">
       <c r="C29" s="17">
         <v>43141</v>
       </c>
@@ -3344,12 +3133,12 @@
       <c r="E29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="20"/>
       <c r="I29" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="18" customHeight="1">
+    <row r="30" spans="3:13" ht="18" customHeight="1">
       <c r="C30" s="17">
         <v>43141</v>
       </c>
@@ -3359,12 +3148,12 @@
       <c r="E30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="20"/>
       <c r="I30" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="18" customHeight="1">
+    <row r="31" spans="3:13" ht="18" customHeight="1">
       <c r="C31" s="17">
         <v>43141</v>
       </c>
@@ -3374,12 +3163,12 @@
       <c r="E31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="20"/>
       <c r="I31" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="18" customHeight="1">
+    <row r="32" spans="3:13" ht="18" customHeight="1">
       <c r="C32" s="17">
         <v>43141</v>
       </c>
@@ -3389,7 +3178,7 @@
       <c r="E32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="20"/>
       <c r="I32" s="14" t="s">
         <v>18</v>
       </c>
@@ -3404,7 +3193,7 @@
       <c r="E33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="20"/>
       <c r="I33" s="14" t="s">
         <v>18</v>
       </c>
@@ -3419,7 +3208,7 @@
       <c r="E34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="20"/>
       <c r="I34" s="14" t="s">
         <v>18</v>
       </c>
@@ -3434,7 +3223,7 @@
       <c r="E35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="20"/>
       <c r="I35" s="14" t="s">
         <v>18</v>
       </c>
@@ -4667,19 +4456,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 F17:F55 J17:K55 H17:H55">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 F18:F55 H18:H55 J18:K55">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="F17:F55 G36:G55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G36:G55 F18:F55">
       <formula1>Courses</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="J17:J55 I41:I55 H17:H55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H18:H55 I41:I55 J18:J55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4726,21 +4515,20 @@
     <hyperlink ref="K15" r:id="rId40" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
     <hyperlink ref="K16" r:id="rId41" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
     <hyperlink ref="J16" r:id="rId42" tooltip="Merged Pull Request: 2. Generated jhipster in &quot;barbican&quot; folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/3"/>
+    <hyperlink ref="F17" r:id="rId43" tooltip="3. Added &quot;registry&quot; files from github_x000a__x000a_Add &quot;version&quot;: &quot;3.2.4&quot;, to registry folder" display="https://github.com/Spirovanni/Pirate-Castle/commit/157613ac95fb783a249dd083f17e13a22ce90a40"/>
+    <hyperlink ref="J17" r:id="rId44" tooltip="Merged Pull Request: 3. Added &quot;registry&quot; files from github" display="https://github.com/Spirovanni/Pirate-Castle/pull/4"/>
+    <hyperlink ref="K17" r:id="rId45" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
+    <hyperlink ref="F16" r:id="rId46" tooltip="2. Generated jhipster in &quot;barbican&quot; folder_x000a__x000a_Application files will be generated in folder: C:\Users\Staff2\dev\Pirate-Castle\barbican_x000a_? Which *type* of application would you like to create? Microservice gateway_x000a_? What is the base name of your application?" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
+    <hyperlink ref="F15" r:id="rId47" tooltip="1.  Added &quot;barbican&quot; and &quot;registry&quot; directory_x000a__x000a_C:\Users\Staff2\dev\Pirate-Castle&gt;mkdir registry &amp; mkdir barbican" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
+    <hyperlink ref="F14" r:id="rId48" tooltip="0. Version added to README.md_x000a__x000a_First update from GitKraken" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId43"/>
-  <drawing r:id="rId44"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId49"/>
+  <drawing r:id="rId50"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId51"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId46"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4921,7 +4709,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C30 F6:F30">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>COUNTIF($C:$C,$C6)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5300,7 +5088,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:G50">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>(COUNTIF($C:$C,$C6)&gt;1)*($C6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>NAME</t>
   </si>
@@ -113,47 +113,12 @@
     <t>Changes</t>
   </si>
   <si>
-    <r>
-      <t>300 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>0 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2</t>
   </si>
   <si>
     <t>#1</t>
   </si>
   <si>
-    <t>1. Added "barbican" and "registry" directory</t>
-  </si>
-  <si>
     <t>C:\Users\Staff2\dev\Pirate-Castle&gt;mkdir registry &amp; mkdir barbican</t>
   </si>
   <si>
@@ -164,38 +129,6 @@
   </si>
   <si>
     <t>1 parent 56d2d5e</t>
-  </si>
-  <si>
-    <r>
-      <t>9 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>17 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>#0</t>
@@ -235,42 +168,146 @@
     <t>405 changed files</t>
   </si>
   <si>
-    <t> 2 changed files</t>
-  </si>
-  <si>
-    <t> 5 changed files</t>
-  </si>
-  <si>
-    <t> 1 changed file </t>
+    <t>Add "version": "3.2.4", to registry folder</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>1 parent 5a16089</t>
+  </si>
+  <si>
+    <t>157613ac95fb783a249dd083f17e13a22ce90a40</t>
+  </si>
+  <si>
+    <t>30,857 additions and 4 deletions.</t>
+  </si>
+  <si>
+    <t>We need to add dependencies to package.json from ngx-admin/package.json that is not exists. Also you need to check version of dependency that is already exists. You can pick ngx-admin version if it is upper.</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>1 parent 157613a </t>
+  </si>
+  <si>
+    <t>f808899cd659b6f1b7d643304a93c850ef924724</t>
+  </si>
+  <si>
+    <t>1,724 additions and 204 deletions.</t>
+  </si>
+  <si>
+    <t>300 additions and 0 deletions.</t>
+  </si>
+  <si>
+    <t>9 additions and 17 deletions.</t>
+  </si>
+  <si>
+    <t>32,564 additions and 10 deletions.</t>
+  </si>
+  <si>
+    <t>mkdir src/main/webapp/app/ngx-admin;
+cp -R ../ngx-admin/src/app/* src/main/webapp/app/ngx-admin/</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>515 changed files</t>
+  </si>
+  <si>
+    <t>291 changed files </t>
+  </si>
+  <si>
+    <t>1 parent f808899</t>
+  </si>
+  <si>
+    <t>f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c</t>
+  </si>
+  <si>
+    <t>41,650 additions and 15 deletions.</t>
+  </si>
+  <si>
+    <t>Updated "app.main.ts" file.</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>1 changed file </t>
+  </si>
+  <si>
+    <t>5 changed files</t>
+  </si>
+  <si>
+    <t>1 parent f3d4bd8</t>
+  </si>
+  <si>
+    <t>39858907d928bca6401f2c6e8a0af5a5ec8e9b66</t>
+  </si>
+  <si>
+    <t>35 additions and 232 deletions.</t>
+  </si>
+  <si>
+    <t>1. Version added to README.md </t>
+  </si>
+  <si>
+    <t>2. Added "barbican" and "registry" directory</t>
+  </si>
+  <si>
+    <t>3. Generated jhipster in "barbican" folder </t>
+  </si>
+  <si>
+    <t>4. Added "registry" files from github</t>
+  </si>
+  <si>
+    <t>5. Dependency merge;</t>
+  </si>
+  <si>
+    <t>6. Copy ngx-admin ui-component files;</t>
+  </si>
+  <si>
+    <t>7. ootstrapModule switched to ngx-admin app-module</t>
+  </si>
+  <si>
+    <t>8. Overwrite index.html from ngx-admin</t>
+  </si>
+  <si>
+    <t>cp ../ngx-admin/src/index.html src/main/webapp/index.html</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>1 parent 3985890</t>
+  </si>
+  <si>
+    <t>69dadbfad32c827cecb95c9b367c3de783686e0a</t>
+  </si>
+  <si>
+    <t>51 additions and 79 deletions.</t>
+  </si>
+  <si>
+    <t>9. Fix "Cannot find name 'tinymce'" error </t>
+  </si>
+  <si>
+    <t>cp ../ngx-admin/src/typings.d.ts src/main/webapp/app/ngx-admin/
+and import it in app-module</t>
   </si>
   <si>
     <r>
-      <t>32,564 additions</t>
+      <t>6 changed files</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF24292E"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t> and </t>
+      <t> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>10 deletions.</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Added "registry" files from github</t>
-  </si>
-  <si>
-    <t>Add "version": "3.2.4", to registry folder</t>
   </si>
   <si>
     <r>
@@ -281,11 +318,11 @@
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
-      <t>291 changed files</t>
+      <t>3 changed files</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF24292E"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -294,22 +331,102 @@
     </r>
   </si>
   <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>1 parent 5a16089</t>
-  </si>
-  <si>
-    <t>157613ac95fb783a249dd083f17e13a22ce90a40</t>
-  </si>
-  <si>
-    <t>30,857 additions and 4 deletions.</t>
-  </si>
-  <si>
-    <t>2. Generated jhipster in "barbican" folder </t>
-  </si>
-  <si>
-    <t>0. Version added to README.md </t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2 changed files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>8 changed files </t>
+  </si>
+  <si>
+    <t>2 changed files</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>1 parent 69dadbf</t>
+  </si>
+  <si>
+    <t>5d289bfe0f7312af450d76f10b941b4ebd23f8b9</t>
+  </si>
+  <si>
+    <t>123 additions and 10 deletions.</t>
+  </si>
+  <si>
+    <t>10. Fix Error: Cannot find module 'app/pages/pages.module'.</t>
+  </si>
+  <si>
+    <t>Setting a clean path</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <r>
+      <t>3 changed files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>1 parent 5d289bf</t>
+  </si>
+  <si>
+    <t>2e901a51134984e3cf4a46e4f000f9bf629b9d28</t>
+  </si>
+  <si>
+    <t>68 additions and 32 deletions.</t>
+  </si>
+  <si>
+    <t>11. Copy the assets folder</t>
+  </si>
+  <si>
+    <t>cp -R ../ngx-admin/src/assets ./src/main/webapp/app/ngx-admin/</t>
+  </si>
+  <si>
+    <t>39 changed files</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>1 parent 2e901a5</t>
+  </si>
+  <si>
+    <t>0e436298741ae99a17beacbdfc7ce587d7f03fda</t>
+  </si>
+  <si>
+    <t>268 additions and 19 deletions.</t>
+  </si>
+  <si>
+    <t>12. Configure webpack/webpack.common.js to copy assets folder to targ… </t>
+  </si>
+  <si>
+    <t>…et web folder to be able to served from application</t>
   </si>
 </sst>
 </file>
@@ -319,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -380,12 +497,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF444D56"/>
       <name val="Consolas"/>
@@ -398,16 +509,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -456,7 +580,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,19 +645,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2713,8 +2849,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2799,17 +2935,17 @@
       <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>42</v>
+      <c r="H13" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
         <v>22</v>
@@ -2829,28 +2965,28 @@
         <v>12</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>43</v>
+      <c r="H14" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="22" t="s">
         <v>27</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="21" customHeight="1">
@@ -2864,28 +3000,28 @@
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="L15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="18" customHeight="1">
@@ -2899,28 +3035,28 @@
         <v>12</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="18" customHeight="1">
@@ -2928,34 +3064,34 @@
         <v>43141</v>
       </c>
       <c r="D17" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="18" customHeight="1">
@@ -2963,14 +3099,34 @@
         <v>43141</v>
       </c>
       <c r="D18" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.81597222222222221</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="F18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="18" customHeight="1">
@@ -2978,14 +3134,34 @@
         <v>43141</v>
       </c>
       <c r="D19" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.87083333333333324</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="F19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="I19" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="18" customHeight="1">
@@ -2993,14 +3169,34 @@
         <v>43141</v>
       </c>
       <c r="D20" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="F20" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="I20" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="18" customHeight="1">
@@ -3008,14 +3204,34 @@
         <v>43141</v>
       </c>
       <c r="D21" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.92847222222222225</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="F21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="I21" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="18" customHeight="1">
@@ -3023,14 +3239,34 @@
         <v>43141</v>
       </c>
       <c r="D22" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.94097222222222221</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="F22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
       <c r="I22" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="18" customHeight="1">
@@ -3038,14 +3274,34 @@
         <v>43141</v>
       </c>
       <c r="D23" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.94444444444444453</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="F23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
       <c r="I23" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="18" customHeight="1">
@@ -3053,14 +3309,34 @@
         <v>43141</v>
       </c>
       <c r="D24" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.95277777777777783</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="F24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
       <c r="I24" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="18" customHeight="1">
@@ -3073,7 +3349,12 @@
       <c r="E25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="F25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="I25" s="14" t="s">
         <v>18</v>
       </c>
@@ -4456,19 +4737,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 F18:F55 H18:H55 J18:K55">
+  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 H25:H55 J25:K55 F26:F55">
     <cfRule type="expression" dxfId="12" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G36:G55 F18:F55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G36:G55 F26:F55">
       <formula1>Courses</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H18:H55 I41:I55 J18:J55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H25:H55 I41:I55 J25:J55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4521,13 +4802,35 @@
     <hyperlink ref="F16" r:id="rId46" tooltip="2. Generated jhipster in &quot;barbican&quot; folder_x000a__x000a_Application files will be generated in folder: C:\Users\Staff2\dev\Pirate-Castle\barbican_x000a_? Which *type* of application would you like to create? Microservice gateway_x000a_? What is the base name of your application?" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
     <hyperlink ref="F15" r:id="rId47" tooltip="1.  Added &quot;barbican&quot; and &quot;registry&quot; directory_x000a__x000a_C:\Users\Staff2\dev\Pirate-Castle&gt;mkdir registry &amp; mkdir barbican" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
     <hyperlink ref="F14" r:id="rId48" tooltip="0. Version added to README.md_x000a__x000a_First update from GitKraken" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
+    <hyperlink ref="F18" r:id="rId49" tooltip="4. Dependency merge;_x000a__x000a_We need to add dependencies to package.json from ngx-admin/package.json that is not exists. Also you need to check version of dependency that is already exists. You can pick ngx-admin version if it is upper." display="https://github.com/Spirovanni/Pirate-Castle/commit/f808899cd659b6f1b7d643304a93c850ef924724"/>
+    <hyperlink ref="J18" r:id="rId50" tooltip="Merged Pull Request: 4. Dependency merge;" display="https://github.com/Spirovanni/Pirate-Castle/pull/5"/>
+    <hyperlink ref="K18" r:id="rId51" display="https://github.com/Spirovanni/Pirate-Castle/commit/157613ac95fb783a249dd083f17e13a22ce90a40"/>
+    <hyperlink ref="F19" r:id="rId52" tooltip="5. Copy ngx-admin ui-component files;_x000a__x000a_mkdir src/main/webapp/app/ngx-admin;_x000a_cp -R ../ngx-admin/src/app/* src/main/webapp/app/ngx-admin/" display="https://github.com/Spirovanni/Pirate-Castle/commit/f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c"/>
+    <hyperlink ref="J19" r:id="rId53" tooltip="Merged Pull Request: 5. Copy ngx-admin ui-component files;" display="https://github.com/Spirovanni/Pirate-Castle/pull/6"/>
+    <hyperlink ref="K19" r:id="rId54" display="https://github.com/Spirovanni/Pirate-Castle/commit/f808899cd659b6f1b7d643304a93c850ef924724"/>
+    <hyperlink ref="F20" r:id="rId55" tooltip="6. bootstrapModule switched to ngx-admin app-module_x000a__x000a_Updated &quot;app.main.ts&quot; file." display="https://github.com/Spirovanni/Pirate-Castle/commit/39858907d928bca6401f2c6e8a0af5a5ec8e9b66"/>
+    <hyperlink ref="J20" r:id="rId56" tooltip="Merged Pull Request: 6. bootstrapModule switched to ngx-admin app-module" display="https://github.com/Spirovanni/Pirate-Castle/pull/7"/>
+    <hyperlink ref="K20" r:id="rId57" display="https://github.com/Spirovanni/Pirate-Castle/commit/f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c"/>
+    <hyperlink ref="F21" r:id="rId58" tooltip="7. Overwrite index.html from ngx-admin_x000a__x000a_cp ../ngx-admin/src/index.html src/main/webapp/index.html" display="https://github.com/Spirovanni/Pirate-Castle/commit/69dadbfad32c827cecb95c9b367c3de783686e0a"/>
+    <hyperlink ref="J21" r:id="rId59" tooltip="Merged Pull Request: 7. Overwrite index.html from ngx-admin" display="https://github.com/Spirovanni/Pirate-Castle/pull/8"/>
+    <hyperlink ref="K21" r:id="rId60" display="https://github.com/Spirovanni/Pirate-Castle/commit/39858907d928bca6401f2c6e8a0af5a5ec8e9b66"/>
+    <hyperlink ref="F22" r:id="rId61" tooltip="9. Fix &quot;Cannot find name 'tinymce'&quot; error_x000a__x000a_cp ../ngx-admin/src/typings.d.ts src/main/webapp/app/ngx-admin/_x000a_and import it in app-module" display="https://github.com/Spirovanni/Pirate-Castle/commit/5d289bfe0f7312af450d76f10b941b4ebd23f8b9"/>
+    <hyperlink ref="J22" r:id="rId62" tooltip="Merged Pull Request: 9. Fix &quot;Cannot find name 'tinymce'&quot; error" display="https://github.com/Spirovanni/Pirate-Castle/pull/9"/>
+    <hyperlink ref="K22" r:id="rId63" display="https://github.com/Spirovanni/Pirate-Castle/commit/69dadbfad32c827cecb95c9b367c3de783686e0a"/>
+    <hyperlink ref="F23" r:id="rId64" tooltip="10. Fix Error: Cannot find module 'app/pages/pages.module'._x000a__x000a_Setting a clean path" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
+    <hyperlink ref="J23" r:id="rId65" tooltip="Merged Pull Request: 10. Fix Error: Cannot find module 'app/pages/pages.module'." display="https://github.com/Spirovanni/Pirate-Castle/pull/10"/>
+    <hyperlink ref="K23" r:id="rId66" display="https://github.com/Spirovanni/Pirate-Castle/commit/5d289bfe0f7312af450d76f10b941b4ebd23f8b9"/>
+    <hyperlink ref="F24" r:id="rId67" tooltip="11. Copy the assets folder_x000a__x000a_cp -R ../ngx-admin/src/assets ./src/main/webapp/app/ngx-admin/" display="https://github.com/Spirovanni/Pirate-Castle/commit/0e436298741ae99a17beacbdfc7ce587d7f03fda"/>
+    <hyperlink ref="J24" r:id="rId68" tooltip="Merged Pull Request: 11. Copy the assets folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/11"/>
+    <hyperlink ref="K24" r:id="rId69" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
+    <hyperlink ref="F25" r:id="rId70" tooltip="12. Configure webpack/webpack.common.js to copy assets folder to targt we…_x000a__x000a_…b folder to be able to served from application" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId49"/>
-  <drawing r:id="rId50"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId71"/>
+  <drawing r:id="rId72"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4540,9 +4843,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -4731,9 +5032,7 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>

--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>NAME</t>
   </si>
@@ -428,6 +428,242 @@
   <si>
     <t>…et web folder to be able to served from application</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4 changed files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>1 parent 0e43629</t>
+  </si>
+  <si>
+    <t>ef60494acc6a007fa853cd1557175e4ce52e4b30</t>
+  </si>
+  <si>
+    <t>42 additions and 43 deletions.</t>
+  </si>
+  <si>
+    <t>13. Location update for new assets folder in rooms component scss </t>
+  </si>
+  <si>
+    <t>Location change because of positioning</t>
+  </si>
+  <si>
+    <t>4 changed files</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>1 parent ef60494</t>
+  </si>
+  <si>
+    <t>d8f32fab62468081b5d66cf40e12068572e4c21f</t>
+  </si>
+  <si>
+    <r>
+      <t>28 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>56 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>14. Import ngx-admin theme and styles config in vendor.scss</t>
+  </si>
+  <si>
+    <t>Connecting SCSS files</t>
+  </si>
+  <si>
+    <t>3 changed files</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>1 parent d8f32fa</t>
+  </si>
+  <si>
+    <t>b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9</t>
+  </si>
+  <si>
+    <r>
+      <t>54 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>24 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>15. Clear jhipster bootstrap style configs that can conflict with</t>
+  </si>
+  <si>
+    <t>ngx-admin styles</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>1 parent b82c1fd </t>
+  </si>
+  <si>
+    <t>327e5ddc66f329c757c423fef55590b75726dfeb</t>
+  </si>
+  <si>
+    <r>
+      <t>54 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>292 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>6 changed files</t>
+  </si>
+  <si>
+    <t>npm install echarts@3.7.2 --save;</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>1 parent 70338c0</t>
+  </si>
+  <si>
+    <t>d481422865fb0045eecc23700b50649ffd1be0db</t>
+  </si>
+  <si>
+    <r>
+      <t>87 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>36 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>16. Echarts dependency install and compnent configs applied.</t>
+  </si>
+  <si>
+    <t>17. tinymce and chart components js bundle configs</t>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -528,10 +764,23 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0366D6"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -580,7 +829,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,16 +909,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2849,8 +3104,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2867,7 +3122,7 @@
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="43.5703125" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="14.25"/>
@@ -2970,7 +3225,7 @@
       <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="29" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -3005,7 +3260,7 @@
       <c r="G15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="29" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="14" t="s">
@@ -3040,7 +3295,7 @@
       <c r="G16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="14" t="s">
@@ -3075,7 +3330,7 @@
       <c r="G17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="29" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="14" t="s">
@@ -3110,7 +3365,7 @@
       <c r="G18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="29" t="s">
         <v>84</v>
       </c>
       <c r="I18" s="14" t="s">
@@ -3142,10 +3397,10 @@
       <c r="F19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="29" t="s">
         <v>54</v>
       </c>
       <c r="I19" s="14" t="s">
@@ -3180,7 +3435,7 @@
       <c r="G20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="14" t="s">
@@ -3247,7 +3502,7 @@
       <c r="F22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="28" t="s">
         <v>80</v>
       </c>
       <c r="H22" t="s">
@@ -3297,7 +3552,7 @@
       <c r="K23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="31" t="s">
         <v>95</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -3332,7 +3587,7 @@
       <c r="K24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="31" t="s">
         <v>102</v>
       </c>
       <c r="M24" s="24" t="s">
@@ -3352,11 +3607,26 @@
       <c r="F25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="28" t="s">
         <v>105</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="18" customHeight="1">
@@ -3369,9 +3639,29 @@
       <c r="E26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="F26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>113</v>
+      </c>
       <c r="I26" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="18" customHeight="1">
@@ -3384,9 +3674,29 @@
       <c r="E27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="F27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="I27" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="18" customHeight="1">
@@ -3399,9 +3709,29 @@
       <c r="E28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="F28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>113</v>
+      </c>
       <c r="I28" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="18" customHeight="1">
@@ -3414,9 +3744,29 @@
       <c r="E29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="F29" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="I29" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="18" customHeight="1">
@@ -3429,9 +3779,20 @@
       <c r="E30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="20"/>
+      <c r="F30" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="I30" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="18" customHeight="1">
@@ -4737,19 +5098,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 H25:H55 J25:K55 F26:F55">
+  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 F31:F55 H31:H55 K30:K55 J31:J55">
     <cfRule type="expression" dxfId="12" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G36:G55 F26:F55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G36:G55 F31:F55">
       <formula1>Courses</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H25:H55 I41:I55 J25:J55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H31:H55 I41:I55 J31:J55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4824,13 +5185,29 @@
     <hyperlink ref="J24" r:id="rId68" tooltip="Merged Pull Request: 11. Copy the assets folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/11"/>
     <hyperlink ref="K24" r:id="rId69" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
     <hyperlink ref="F25" r:id="rId70" tooltip="12. Configure webpack/webpack.common.js to copy assets folder to targt we…_x000a__x000a_…b folder to be able to served from application" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
+    <hyperlink ref="J25" r:id="rId71" tooltip="Merged Pull Request: 12. Configure webpack/webpack.common.js to copy assets folder to targ…" display="https://github.com/Spirovanni/Pirate-Castle/pull/12"/>
+    <hyperlink ref="K25" r:id="rId72" display="https://github.com/Spirovanni/Pirate-Castle/commit/0e436298741ae99a17beacbdfc7ce587d7f03fda"/>
+    <hyperlink ref="F26" r:id="rId73" tooltip="13. Location update for new assets folder in rooms component scss_x000a__x000a_Location change because of positioning" display="https://github.com/Spirovanni/Pirate-Castle/commit/d8f32fab62468081b5d66cf40e12068572e4c21f"/>
+    <hyperlink ref="J26" r:id="rId74" tooltip="Merged Pull Request: 13. Location update for new assets folder in rooms component scss" display="https://github.com/Spirovanni/Pirate-Castle/pull/13"/>
+    <hyperlink ref="K26" r:id="rId75" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
+    <hyperlink ref="F27" r:id="rId76" tooltip="14. Import ngx-admin theme and styles config in vendor.scss_x000a__x000a_Connecting SCSS files" display="https://github.com/Spirovanni/Pirate-Castle/commit/b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9"/>
+    <hyperlink ref="J27" r:id="rId77" tooltip="Merged Pull Request: 14. Import ngx-admin theme and styles config in vendor.scss" display="https://github.com/Spirovanni/Pirate-Castle/pull/14"/>
+    <hyperlink ref="K27" r:id="rId78" display="https://github.com/Spirovanni/Pirate-Castle/commit/d8f32fab62468081b5d66cf40e12068572e4c21f"/>
+    <hyperlink ref="F28" r:id="rId79" tooltip="15. Clear jhipster bootstrap style configs that can conflict with_x000a__x000a_ngx-admin styles" display="https://github.com/Spirovanni/Pirate-Castle/commit/327e5ddc66f329c757c423fef55590b75726dfeb"/>
+    <hyperlink ref="J28" r:id="rId80" tooltip="Merged Pull Request: 15. Clear jhipster bootstrap style configs that can conflict with" display="https://github.com/Spirovanni/Pirate-Castle/pull/15"/>
+    <hyperlink ref="K28" r:id="rId81" display="https://github.com/Spirovanni/Pirate-Castle/commit/b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9"/>
+    <hyperlink ref="F29" r:id="rId82" tooltip="17. Echarts dependency install and compnent configs applied._x000a__x000a_npm install echarts@3.7.2 --save;" display="https://github.com/Spirovanni/Pirate-Castle/commit/d481422865fb0045eecc23700b50649ffd1be0db"/>
+    <hyperlink ref="J29" r:id="rId83" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/16"/>
+    <hyperlink ref="K29" r:id="rId84" display="https://github.com/Spirovanni/Pirate-Castle/commit/70338c0506ae76b4d289c0bee4a0b3d96344f399"/>
+    <hyperlink ref="F30" r:id="rId85" tooltip="18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
+    <hyperlink ref="J30" r:id="rId86" tooltip="Merged Pull Request: 18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/pull/17"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId71"/>
-  <drawing r:id="rId72"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId87"/>
+  <drawing r:id="rId88"/>
   <tableParts count="1">
-    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId89"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>NAME</t>
   </si>
@@ -663,6 +663,285 @@
   </si>
   <si>
     <t>17. tinymce and chart components js bundle configs</t>
+  </si>
+  <si>
+    <t>1 parent d481422</t>
+  </si>
+  <si>
+    <t>fb44622459762e704b049cc0f3d672a01d5e69a8</t>
+  </si>
+  <si>
+    <r>
+      <t>44 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>59 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>18. String based lazy router loading fixes.</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>1 parent fb44622</t>
+  </si>
+  <si>
+    <t>6cef9c251affc1695a2b4bda5a3fa66ac419a283</t>
+  </si>
+  <si>
+    <r>
+      <t>67 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>26 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>19. Echarts world component js added </t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>1 parent 6cef9c2</t>
+  </si>
+  <si>
+    <t>3628054f0bfea6114f7867d8febf92d3ca38ca0f</t>
+  </si>
+  <si>
+    <r>
+      <t>17 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>18 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>20. Adding Doc folder </t>
+  </si>
+  <si>
+    <t>created scripts.txt file</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <r>
+      <t>88 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>100 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>4187afd07e808429beb3e235e4bc8bff6758e488</t>
+  </si>
+  <si>
+    <t>1 parent 3628054</t>
+  </si>
+  <si>
+    <t>21. Updated charts folder</t>
+  </si>
+  <si>
+    <t>Replaced "ngx" with "jhi" in selectors.</t>
+  </si>
+  <si>
+    <t>24 changed files</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>1 parent 4187afd </t>
+  </si>
+  <si>
+    <t>06e453d6b28e0969123cc65cccd5220f7a7bfab0</t>
+  </si>
+  <si>
+    <r>
+      <t>562 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>129 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>22. Update "@theme/ components &amp; layouts"</t>
+  </si>
+  <si>
+    <t>305 changed files</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>1 parent 06e453d</t>
+  </si>
+  <si>
+    <t>9893d85e59b5ee28753c1ae2080bf9cc42011a2e</t>
+  </si>
+  <si>
+    <r>
+      <t>535 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>28,291 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>23. Updated the other files in "@theme/ components &amp; layouts"</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>50 changed files</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1213,103 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1508,31 +1883,31 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="Employee Training Tracker - Log" defaultPivotStyle="PivotTable Style 1">
     <tableStyle name="Employee Training Tracker" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+    </tableStyle>
+    <tableStyle name="Employee Training Tracker - Info" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+    </tableStyle>
+    <tableStyle name="Employee Training Tracker - List" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
-    </tableStyle>
-    <tableStyle name="Employee Training Tracker - Info" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-    </tableStyle>
-    <tableStyle name="Employee Training Tracker - List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Log" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
     </tableStyle>
     <tableStyle name="PivotTable Style 1" table="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstColumn" dxfId="19"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -2825,8 +3200,8 @@
     <filterColumn colId="10"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="11"/>
-    <tableColumn id="3" name="TIME" dataDxfId="10"/>
+    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="17"/>
+    <tableColumn id="3" name="TIME" dataDxfId="16"/>
     <tableColumn id="1" name="DEVELOPER"/>
     <tableColumn id="2" name="FEATURE"/>
     <tableColumn id="5" name="DETAILS"/>
@@ -2848,24 +3223,24 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="FEATURE"/>
-    <tableColumn id="2" name="DESCRIPTION" dataDxfId="8"/>
-    <tableColumn id="3" name="FILE" dataDxfId="7"/>
-    <tableColumn id="4" name="HOURS" dataDxfId="6"/>
+    <tableColumn id="2" name="DESCRIPTION" dataDxfId="14"/>
+    <tableColumn id="3" name="FILE" dataDxfId="13"/>
+    <tableColumn id="4" name="HOURS" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - List" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="4" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="10" headerRowCellStyle="Heading 2">
   <autoFilter ref="C5:F50">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="NAME" dataDxfId="3"/>
-    <tableColumn id="2" name="Department" dataDxfId="2"/>
-    <tableColumn id="4" name="Title" dataDxfId="1"/>
-    <tableColumn id="3" name="HOURS" dataDxfId="0"/>
+    <tableColumn id="1" name="NAME" dataDxfId="9"/>
+    <tableColumn id="2" name="Department" dataDxfId="8"/>
+    <tableColumn id="4" name="Title" dataDxfId="7"/>
+    <tableColumn id="3" name="HOURS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - Info" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3104,8 +3479,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B30" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3599,7 +3974,7 @@
         <v>43141</v>
       </c>
       <c r="D25" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.97430555555555554</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>12</v>
@@ -3634,7 +4009,7 @@
         <v>43141</v>
       </c>
       <c r="D26" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.98749999999999993</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>12</v>
@@ -3669,7 +4044,7 @@
         <v>43141</v>
       </c>
       <c r="D27" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.99236111111111114</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>12</v>
@@ -3701,10 +4076,10 @@
     </row>
     <row r="28" spans="3:13" ht="18" customHeight="1">
       <c r="C28" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D28" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>12</v>
@@ -3736,10 +4111,10 @@
     </row>
     <row r="29" spans="3:13" ht="18" customHeight="1">
       <c r="C29" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D29" s="15">
-        <v>0.69374999999999998</v>
+        <v>1.1805555555555555E-2</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>12</v>
@@ -3771,10 +4146,10 @@
     </row>
     <row r="30" spans="3:13" ht="18" customHeight="1">
       <c r="C30" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D30" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>12</v>
@@ -3794,102 +4169,223 @@
       <c r="J30" s="14" t="s">
         <v>137</v>
       </c>
+      <c r="K30" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="3:13" ht="18" customHeight="1">
       <c r="C31" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D31" s="15">
-        <v>0.69374999999999998</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="F31" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="I31" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="J31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="32" spans="3:13" ht="18" customHeight="1">
       <c r="C32" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D32" s="15">
-        <v>0.69374999999999998</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="F32" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="I32" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" ht="18" customHeight="1">
+      <c r="J32" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="18" customHeight="1">
       <c r="C33" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D33" s="15">
-        <v>0.69374999999999998</v>
+        <v>6.1111111111111116E-2</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="F33" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="I33" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" ht="18" customHeight="1">
+      <c r="J33" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="18" customHeight="1">
       <c r="C34" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D34" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="F34" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="I34" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" ht="18" customHeight="1">
+      <c r="J34" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="18" customHeight="1">
       <c r="C35" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D35" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="20"/>
+      <c r="F35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="I35" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" ht="18" customHeight="1">
+      <c r="J35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="18" customHeight="1">
       <c r="C36" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D36" s="15">
-        <v>0.69374999999999998</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="F36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="I36" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="3:9" ht="18" customHeight="1">
+      <c r="J36" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="18" customHeight="1">
       <c r="C37" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D37" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>12</v>
@@ -3898,12 +4394,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="18" customHeight="1">
+    <row r="38" spans="3:13" ht="18" customHeight="1">
       <c r="C38" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D38" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>12</v>
@@ -3912,12 +4408,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="18" customHeight="1">
+    <row r="39" spans="3:13" ht="18" customHeight="1">
       <c r="C39" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D39" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>12</v>
@@ -3926,12 +4422,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="18" customHeight="1">
+    <row r="40" spans="3:13" ht="18" customHeight="1">
       <c r="C40" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D40" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>12</v>
@@ -3940,74 +4436,76 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="18" customHeight="1">
+    <row r="41" spans="3:13" ht="18" customHeight="1">
       <c r="C41" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D41" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="18" customHeight="1">
+    <row r="42" spans="3:13" ht="18" customHeight="1">
       <c r="C42" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D42" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="18" customHeight="1">
+    <row r="43" spans="3:13" ht="18" customHeight="1">
       <c r="C43" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D43" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="18" customHeight="1">
+    <row r="44" spans="3:13" ht="18" customHeight="1">
       <c r="C44" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D44" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="18" customHeight="1">
+    <row r="45" spans="3:13" ht="18" customHeight="1">
       <c r="C45" s="17">
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="D45" s="15">
-        <v>0.69374999999999998</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="18" customHeight="1">
-      <c r="C46" s="17"/>
+    <row r="46" spans="3:13" ht="18" customHeight="1">
+      <c r="C46" s="17">
+        <v>43142</v>
+      </c>
       <c r="D46" s="15">
-        <v>0.69374999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" ht="18" customHeight="1">
+        <v>2.2916666666666669E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="18" customHeight="1">
       <c r="C47" s="17"/>
       <c r="D47" s="15">
-        <v>0.69374999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" ht="18" customHeight="1">
+        <v>2.2916666666666669E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="18" customHeight="1">
       <c r="C48" s="17"/>
       <c r="D48" s="15"/>
     </row>
@@ -5098,19 +5596,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 G36:G55 F31:F55 H31:H55 K30:K55 J31:J55">
-    <cfRule type="expression" dxfId="12" priority="4">
+  <conditionalFormatting sqref="I41:I55 E14:E55 F37:H55 K36:K55 J37:J55 C13:D55">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G36:G55 F31:F55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="F37:G55">
       <formula1>Courses</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H31:H55 I41:I55 J31:J55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H37:H55 I41:I55 J37:J55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5201,13 +5699,31 @@
     <hyperlink ref="K29" r:id="rId84" display="https://github.com/Spirovanni/Pirate-Castle/commit/70338c0506ae76b4d289c0bee4a0b3d96344f399"/>
     <hyperlink ref="F30" r:id="rId85" tooltip="18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
     <hyperlink ref="J30" r:id="rId86" tooltip="Merged Pull Request: 18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/pull/17"/>
+    <hyperlink ref="K30" r:id="rId87" display="https://github.com/Spirovanni/Pirate-Castle/commit/d481422865fb0045eecc23700b50649ffd1be0db"/>
+    <hyperlink ref="F31" r:id="rId88" tooltip="18. String based lazy router loading fixes." display="https://github.com/Spirovanni/Pirate-Castle/commit/6cef9c251affc1695a2b4bda5a3fa66ac419a283"/>
+    <hyperlink ref="J31" r:id="rId89" tooltip="Merged Pull Request: 18. String based lazy router loading fixes." display="https://github.com/Spirovanni/Pirate-Castle/pull/18"/>
+    <hyperlink ref="K31" r:id="rId90" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
+    <hyperlink ref="F32" r:id="rId91" tooltip="19. Echarts world component js added_x000a__x000a_None" display="https://github.com/Spirovanni/Pirate-Castle/commit/3628054f0bfea6114f7867d8febf92d3ca38ca0f"/>
+    <hyperlink ref="J32" r:id="rId92" tooltip="Merged Pull Request: 19. Echarts world component js added" display="https://github.com/Spirovanni/Pirate-Castle/pull/19"/>
+    <hyperlink ref="K32" r:id="rId93" display="https://github.com/Spirovanni/Pirate-Castle/commit/6cef9c251affc1695a2b4bda5a3fa66ac419a283"/>
+    <hyperlink ref="F33" r:id="rId94" tooltip="20. Adding Doc folder_x000a__x000a_created scripts.txt file" display="https://github.com/Spirovanni/Pirate-Castle/commit/4187afd07e808429beb3e235e4bc8bff6758e488"/>
+    <hyperlink ref="J33" r:id="rId95" tooltip="Merged Pull Request: 20. Adding Doc folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/20"/>
+    <hyperlink ref="K33" r:id="rId96" display="https://github.com/Spirovanni/Pirate-Castle/commit/3628054f0bfea6114f7867d8febf92d3ca38ca0f"/>
+    <hyperlink ref="F34" r:id="rId97" tooltip="21. Updated charts folder_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
+    <hyperlink ref="J34" r:id="rId98" tooltip="Merged Pull Request: 21. Updated charts folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/21"/>
+    <hyperlink ref="K34" r:id="rId99" display="https://github.com/Spirovanni/Pirate-Castle/commit/4187afd07e808429beb3e235e4bc8bff6758e488"/>
+    <hyperlink ref="F35" r:id="rId100" tooltip="22. Update &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
+    <hyperlink ref="J35" r:id="rId101" tooltip="Merged Pull Request: 22. Update &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/22"/>
+    <hyperlink ref="K35" r:id="rId102" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
+    <hyperlink ref="F36" r:id="rId103" tooltip="23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
+    <hyperlink ref="J36" r:id="rId104" tooltip="Merged Pull Request: 23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/23"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId87"/>
-  <drawing r:id="rId88"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId105"/>
+  <drawing r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId89"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5387,7 +5903,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C30 F6:F30">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>COUNTIF($C:$C,$C6)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5764,7 +6280,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:G50">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>(COUNTIF($C:$C,$C6)&gt;1)*($C6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="188">
   <si>
     <t>NAME</t>
   </si>
@@ -942,6 +942,138 @@
   </si>
   <si>
     <t>50 changed files</t>
+  </si>
+  <si>
+    <t>24. Corrected Warnings in pages/charts folder</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-multiple-xaxis.component.ts
+[16, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-pie.component.ts
+[16, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-radar.component.ts
+[16, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-line.component.ts
+[16, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-bar.component.ts
+[16, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-bar-horizontal.component.ts
+[16, 64]: Parentheses are required around the parameters of an arrow function definition</t>
+  </si>
+  <si>
+    <t>9 changed files</t>
+  </si>
+  <si>
+    <r>
+      <t>147 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>224 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>9b2460bfab1deef0ad4a2262cca728baee354eb9</t>
+  </si>
+  <si>
+    <t>1 parent 0df7406</t>
+  </si>
+  <si>
+    <t>0df7406dc2e38e3a4b036b4aabad0d4be6078453</t>
+  </si>
+  <si>
+    <r>
+      <t>424 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>742 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 parent 9893d85 </t>
+  </si>
+  <si>
+    <t>25. Corrected Warnings in pages/charts/echarts folder</t>
+  </si>
+  <si>
+    <t>WARNING in ./src/main/webapp/app/ngx-admin/pages/ui-features/buttons/hero-buttons/hero-buttons.component.ts
+[16, 71]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-area-stack.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+[5, 13]: The selector of the component "EchartsAreaStackComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+[5, 13]: The selector of the component "EchartsBarComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-line.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+[5, 13]: The selector of the component "EchartsLineComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-pie.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+[5, 13]: The selector of the component "EchartsPieComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-radar.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+[5, 13]: The selector of the component "EchartsRadarComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-multiple-xaxis.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+[61, 28]: Parentheses are required around the parameters of an arrow function definition
+[101, 28]: Parentheses are required around the parameters of an arrow function definition
+[5, 13]: The selector of the component "EchartsMultipleXaxisComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar-animation.component.ts
+[18, 64]: Parentheses are required around the parameters of an arrow function definition
+ [5, 13]: The selector of the component "EchartsBarAnimationComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)</t>
+  </si>
+  <si>
+    <t>11 changed files</t>
   </si>
 </sst>
 </file>
@@ -3479,8 +3611,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B30" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4379,6 +4511,15 @@
       <c r="J36" s="14" t="s">
         <v>173</v>
       </c>
+      <c r="K36" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="37" spans="3:13" ht="18" customHeight="1">
       <c r="C37" s="17">
@@ -4390,8 +4531,29 @@
       <c r="E37" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="F37" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>178</v>
+      </c>
       <c r="I37" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="18" customHeight="1">
@@ -4404,8 +4566,20 @@
       <c r="E38" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="F38" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="I38" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="3:13" ht="18" customHeight="1">
@@ -5596,19 +5770,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I55 E14:E55 F37:H55 K36:K55 J37:J55 C13:D55">
+  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 F39:F55 H39:H55 G37:G55 K38:K55 J39:J55">
     <cfRule type="expression" dxfId="18" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="F37:G55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G37:G55 F39:F55">
       <formula1>Courses</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H37:H55 I41:I55 J37:J55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H39:H55 I41:I55 J39:J55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5717,13 +5891,19 @@
     <hyperlink ref="K35" r:id="rId102" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
     <hyperlink ref="F36" r:id="rId103" tooltip="23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
     <hyperlink ref="J36" r:id="rId104" tooltip="Merged Pull Request: 23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/23"/>
+    <hyperlink ref="F37" r:id="rId105" tooltip="24. Corrected Warnings in pages/charts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-multiple-xaxis.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-pie.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-radar.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-line.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-bar.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-bar-horizontal.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition" display="https://github.com/Spirovanni/Pirate-Castle/commit/9b2460bfab1deef0ad4a2262cca728baee354eb9"/>
+    <hyperlink ref="J37" r:id="rId106" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
+    <hyperlink ref="K37" r:id="rId107" display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
+    <hyperlink ref="K36" r:id="rId108" display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
+    <hyperlink ref="F38" r:id="rId109" tooltip="25. Corrected Warnings in pages/charts/echarts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/ui-features/buttons/hero-buttons/hero-buttons.component.ts_x000a_[16, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-area-stack.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsAreaStackComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsBarComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-line.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsLineComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-pie.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsPieComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-radar.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsRadarComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-multiple-xaxis.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[61, 28]: Parentheses are required around the parameters of an arrow function definition_x000a_[101, 28]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsMultipleXaxisComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar-animation.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_ [5, 13]: The selector of the component &quot;EchartsBarAnimationComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
+    <hyperlink ref="J38" r:id="rId110" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId105"/>
-  <drawing r:id="rId106"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId111"/>
+  <drawing r:id="rId112"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId113"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
   <si>
     <t>NAME</t>
   </si>
@@ -1074,6 +1074,209 @@
   </si>
   <si>
     <t>11 changed files</t>
+  </si>
+  <si>
+    <t>1 parent 9b2460b</t>
+  </si>
+  <si>
+    <t>f141dd65d9d4cae1e8b0eea04951a6291cf83e15</t>
+  </si>
+  <si>
+    <r>
+      <t>132 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>125 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>25b. Corrected Warnings in @theme/components/tiny-mce files</t>
+  </si>
+  <si>
+    <t>WARNING in ./src/main/webapp/app/ngx-admin/@theme/components/tiny-mce/tiny-mce.component.ts
+[20, 14]: Parentheses are required around the parameters of an arrow function definition</t>
+  </si>
+  <si>
+    <t>1 parent f141dd6</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>46fd768d0688f5522aec5c767af3f2fb840d10fa</t>
+  </si>
+  <si>
+    <r>
+      <t>33 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>31 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>26. Corrected Warning in various files </t>
+  </si>
+  <si>
+    <t>WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/dashboard.module.ts
+[23, 1]: Consecutive blank lines are forbidden
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature.component.ts
+[23, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/electricity/electricity.component.ts
+[24, 71]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/traffic/traffic-chart.component.ts
+[26, 73]: Parentheses are required around the parameters of an arrow function definition
+[101, 30]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/d3/d3-pie.component.ts
+[27, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/maps/bubble/bubble-map.component.ts
+[31, 18]: Parentheses are required around the parameters of an arrow function definition
+[471, 24]: Parentheses are required around the parameters of an arrow function definition
+[508, 38]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/d3/d3-advanced-pie.component.ts
+[32, 64]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/traffic/traffic.component.ts
+[34, 71]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts.component.ts
+[4, 13]: The selector of the component "EchartsComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/editors/editors.component.ts
+[4, 13]: The selector of the component "EditorsComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/form-inputs/form-inputs.component.ts
+[4, 13]: The selector of the component "FormInputsComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/form-layouts/form-layouts.component.ts
+[4, 13]: The selector of the component "FormLayoutsComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/forms.component.ts
+[4, 13]: The selector of the component "FormsComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/editors/tiny-mce/tiny-mce.component.ts
+[4, 13]: The selector of the component "TinyMCEComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/@core/core.module.ts
+[41, 3]: Declaration of static method not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/solar/solar.component.ts
+[44, 73]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/electricity/electricity-chart/electricity-chart.component.ts
+[44, 73]: Parentheses are required around the parameters of an arrow function definition
+[79, 33]: Parentheses are required around the parameters of an arrow function definition
+[158, 35]: Parentheses are required around the parameters of an arrow function definition
+[181, 35]: Parentheses are required around the parameters of an arrow function definition
+WARNING in ./src/main/webapp/app/ngx-admin/pages/components/tree/tree.component.ts
+[5, 13]: The selector of the component "TreeComponent" should have prefix "jhi" (https://angular.io/styleguide#style-02-07)
+WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature-dragger/temperature-dragger.component.ts
+[52, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[53, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[55, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[56, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[57, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[58, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[59, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[60, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[61, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[62, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[63, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[65, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[75, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[76, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface.
+[350, 3]: Declaration of static method not allowed after declaration of instance method. Instead, this should come after instance fields.
+[143, 1]: Consecutive blank lines are forbidden</t>
+  </si>
+  <si>
+    <t>21 changed files</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>1 parent 46fd768</t>
+  </si>
+  <si>
+    <t>06e78f523f84a35f073a7b9e7615208f9b8c07c7</t>
+  </si>
+  <si>
+    <r>
+      <t>375 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>294 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>27. Fixed last warnings</t>
+  </si>
+  <si>
+    <t>15 changed files</t>
+  </si>
+  <si>
+    <t>#27</t>
   </si>
 </sst>
 </file>
@@ -1345,23 +1548,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2015,31 +2202,31 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="Employee Training Tracker - Log" defaultPivotStyle="PivotTable Style 1">
     <tableStyle name="Employee Training Tracker" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Info" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="totalRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Log" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
     </tableStyle>
     <tableStyle name="PivotTable Style 1" table="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstColumn" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstColumn" dxfId="18"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -3332,8 +3519,8 @@
     <filterColumn colId="10"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="17"/>
-    <tableColumn id="3" name="TIME" dataDxfId="16"/>
+    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="16"/>
+    <tableColumn id="3" name="TIME" dataDxfId="15"/>
     <tableColumn id="1" name="DEVELOPER"/>
     <tableColumn id="2" name="FEATURE"/>
     <tableColumn id="5" name="DETAILS"/>
@@ -3355,24 +3542,24 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="FEATURE"/>
-    <tableColumn id="2" name="DESCRIPTION" dataDxfId="14"/>
-    <tableColumn id="3" name="FILE" dataDxfId="13"/>
-    <tableColumn id="4" name="HOURS" dataDxfId="12"/>
+    <tableColumn id="2" name="DESCRIPTION" dataDxfId="13"/>
+    <tableColumn id="3" name="FILE" dataDxfId="12"/>
+    <tableColumn id="4" name="HOURS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - List" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="10" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Heading 2">
   <autoFilter ref="C5:F50">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="NAME" dataDxfId="9"/>
-    <tableColumn id="2" name="Department" dataDxfId="8"/>
-    <tableColumn id="4" name="Title" dataDxfId="7"/>
-    <tableColumn id="3" name="HOURS" dataDxfId="6"/>
+    <tableColumn id="1" name="NAME" dataDxfId="8"/>
+    <tableColumn id="2" name="Department" dataDxfId="7"/>
+    <tableColumn id="4" name="Title" dataDxfId="6"/>
+    <tableColumn id="3" name="HOURS" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - Info" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3611,8 +3798,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C35" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -4526,7 +4713,7 @@
         <v>43142</v>
       </c>
       <c r="D37" s="15">
-        <v>2.2916666666666669E-2</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>12</v>
@@ -4561,7 +4748,7 @@
         <v>43142</v>
       </c>
       <c r="D38" s="15">
-        <v>2.2916666666666669E-2</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>12</v>
@@ -4580,6 +4767,15 @@
       </c>
       <c r="J38" s="14" t="s">
         <v>176</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="3:13" ht="18" customHeight="1">
@@ -4587,13 +4783,34 @@
         <v>43142</v>
       </c>
       <c r="D39" s="15">
-        <v>2.2916666666666669E-2</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="F39" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>113</v>
+      </c>
       <c r="I39" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="3:13" ht="18" customHeight="1">
@@ -4601,13 +4818,34 @@
         <v>43142</v>
       </c>
       <c r="D40" s="15">
-        <v>2.2916666666666669E-2</v>
+        <v>0.81111111111111101</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="F40" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="I40" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="18" customHeight="1">
@@ -4615,10 +4853,19 @@
         <v>43142</v>
       </c>
       <c r="D41" s="15">
-        <v>2.2916666666666669E-2</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="18" customHeight="1">
@@ -5770,19 +6017,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I41:I55 E14:E55 C13:D55 F39:F55 H39:H55 G37:G55 K38:K55 J39:J55">
-    <cfRule type="expression" dxfId="18" priority="4">
+  <conditionalFormatting sqref="E14:E55 C13:D55 G37:G55 F42:F55 H42:H55 I41:I55 K41:K55 J42:J55">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G37:G55 F39:F55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G37:G55 F42:F55">
       <formula1>Courses</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H39:H55 I41:I55 J39:J55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H42:H55 I41:I55 J42:J55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5897,13 +6144,22 @@
     <hyperlink ref="K36" r:id="rId108" display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
     <hyperlink ref="F38" r:id="rId109" tooltip="25. Corrected Warnings in pages/charts/echarts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/ui-features/buttons/hero-buttons/hero-buttons.component.ts_x000a_[16, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-area-stack.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsAreaStackComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsBarComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-line.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsLineComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-pie.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsPieComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-radar.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsRadarComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-multiple-xaxis.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[61, 28]: Parentheses are required around the parameters of an arrow function definition_x000a_[101, 28]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsMultipleXaxisComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar-animation.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_ [5, 13]: The selector of the component &quot;EchartsBarAnimationComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
     <hyperlink ref="J38" r:id="rId110" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
+    <hyperlink ref="K38" r:id="rId111" display="https://github.com/Spirovanni/Pirate-Castle/commit/9b2460bfab1deef0ad4a2262cca728baee354eb9"/>
+    <hyperlink ref="F39" r:id="rId112" tooltip="25b. Corrected Warnings in @theme/components/tiny-mce files_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/@theme/components/tiny-mce/tiny-mce.component.ts_x000a_[20, 14]: Parentheses are required around the parameters of an arrow function definition" display="https://github.com/Spirovanni/Pirate-Castle/commit/46fd768d0688f5522aec5c767af3f2fb840d10fa"/>
+    <hyperlink ref="K39" r:id="rId113" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
+    <hyperlink ref="J39" r:id="rId114" tooltip="Merged Pull Request: 25b. Corrected Warnings in @theme/components/tiny-mce files" display="https://github.com/Spirovanni/Pirate-Castle/pull/25"/>
+    <hyperlink ref="F40" r:id="rId115" tooltip="26. Corrected Warning in various files_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/dashboard.module.ts_x000a_[23, 1]: Consecutive blank lines are forbidden_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature.component.ts_x000a_[23, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/electricity/electricity.component.ts_x000a_[24, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/traffic/traffic-chart.component.ts_x000a_[26, 73]: Parentheses are required around the parameters of an arrow function definition_x000a_[101, 30]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/d3/d3-pie.component.ts_x000a_[27, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/maps/bubble/bubble-map.component.ts_x000a_[31, 18]: Parentheses are required around the parameters of an arrow function definition_x000a_[471, 24]: Parentheses are required around the parameters of an arrow function definition_x000a_[508, 38]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/d3/d3-advanced-pie.component.ts_x000a_[32, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/traffic/traffic.component.ts_x000a_[34, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts.component.ts_x000a_[4, 13]: The selector of the component &quot;EchartsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/editors/editors.component.ts_x000a_[4, 13]: The selector of the component &quot;EditorsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/form-inputs/form-inputs.component.ts_x000a_[4, 13]: The selector of the component &quot;FormInputsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/form-layouts/form-layouts.component.ts_x000a_[4, 13]: The selector of the component &quot;FormLayoutsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/forms.component.ts_x000a_[4, 13]: The selector of the component &quot;FormsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/editors/tiny-mce/tiny-mce.component.ts_x000a_[4, 13]: The selector of the component &quot;TinyMCEComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/@core/core.module.ts_x000a_[41, 3]: Declaration of static method not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/solar/solar.component.ts_x000a_[44, 73]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/electricity/electricity-chart/electricity-chart.component.ts_x000a_[44, 73]: Parentheses are required around the parameters of an arrow function definition_x000a_[79, 33]: Parentheses are required around the parameters of an arrow function definition_x000a_[158, 35]: Parentheses are required around the parameters of an arrow function definition_x000a_[181, 35]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/components/tree/tree.component.ts_x000a_[5, 13]: The selector of the component &quot;TreeComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature-dragger/temperature-dragger.component.ts_x000a_[52, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[53, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[55, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[56, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[57, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[58, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[59, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[60, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[61, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[62, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[63, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[65, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[75, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[76, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[350, 3]: Declaration of static method not allowed after declaration of instance method. Instead, this should come after instance fields._x000a_[143, 1]: Consecutive blank lines are forbidden" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e78f523f84a35f073a7b9e7615208f9b8c07c7"/>
+    <hyperlink ref="J40" r:id="rId116" tooltip="Merged Pull Request: 26. Corrected Warning in various files" display="https://github.com/Spirovanni/Pirate-Castle/pull/26"/>
+    <hyperlink ref="K40" r:id="rId117" display="https://github.com/Spirovanni/Pirate-Castle/commit/46fd768d0688f5522aec5c767af3f2fb840d10fa"/>
+    <hyperlink ref="F41" r:id="rId118" tooltip="27. Fixed last warnings_x000a__x000a_Ran without warnings" display="https://github.com/Spirovanni/Pirate-Castle/commit/535df5af0e73b859e37a4f1accd7af8008d3a3ce"/>
+    <hyperlink ref="J41" r:id="rId119" tooltip="Merged Pull Request: 27. Fixed last warnings" display="https://github.com/Spirovanni/Pirate-Castle/pull/27"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId111"/>
-  <drawing r:id="rId112"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId120"/>
+  <drawing r:id="rId121"/>
   <tableParts count="1">
-    <tablePart r:id="rId113"/>
+    <tablePart r:id="rId122"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6083,7 +6339,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C30 F6:F30">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>COUNTIF($C:$C,$C6)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6460,7 +6716,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:G50">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>(COUNTIF($C:$C,$C6)&gt;1)*($C6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DevTracker.xlsx
+++ b/DevTracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="219">
   <si>
     <t>NAME</t>
   </si>
@@ -296,62 +296,6 @@
 and import it in app-module</t>
   </si>
   <si>
-    <r>
-      <t>6 changed files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>3 changed files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>2 changed files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>8 changed files </t>
   </si>
   <si>
@@ -379,20 +323,6 @@
     <t>#10</t>
   </si>
   <si>
-    <r>
-      <t>3 changed files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>1 parent 5d289bf</t>
   </si>
   <si>
@@ -429,27 +359,6 @@
     <t>…et web folder to be able to served from application</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>4 changed files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>#12</t>
   </si>
   <si>
@@ -480,38 +389,6 @@
     <t>d8f32fab62468081b5d66cf40e12068572e4c21f</t>
   </si>
   <si>
-    <r>
-      <t>28 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>56 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>14. Import ngx-admin theme and styles config in vendor.scss</t>
   </si>
   <si>
@@ -530,38 +407,6 @@
     <t>b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9</t>
   </si>
   <si>
-    <r>
-      <t>54 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>24 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>15. Clear jhipster bootstrap style configs that can conflict with</t>
   </si>
   <si>
@@ -577,38 +422,6 @@
     <t>327e5ddc66f329c757c423fef55590b75726dfeb</t>
   </si>
   <si>
-    <r>
-      <t>54 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>292 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>6 changed files</t>
   </si>
   <si>
@@ -624,38 +437,6 @@
     <t>d481422865fb0045eecc23700b50649ffd1be0db</t>
   </si>
   <si>
-    <r>
-      <t>87 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>36 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>#17</t>
   </si>
   <si>
@@ -671,38 +452,6 @@
     <t>fb44622459762e704b049cc0f3d672a01d5e69a8</t>
   </si>
   <si>
-    <r>
-      <t>44 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>59 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>18. String based lazy router loading fixes.</t>
   </si>
   <si>
@@ -715,38 +464,6 @@
     <t>6cef9c251affc1695a2b4bda5a3fa66ac419a283</t>
   </si>
   <si>
-    <r>
-      <t>67 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>26 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>19. Echarts world component js added </t>
   </si>
   <si>
@@ -759,38 +476,6 @@
     <t>3628054f0bfea6114f7867d8febf92d3ca38ca0f</t>
   </si>
   <si>
-    <r>
-      <t>17 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>18 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>20. Adding Doc folder </t>
   </si>
   <si>
@@ -800,38 +485,6 @@
     <t>#20</t>
   </si>
   <si>
-    <r>
-      <t>88 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>100 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>4187afd07e808429beb3e235e4bc8bff6758e488</t>
   </si>
   <si>
@@ -856,38 +509,6 @@
     <t>06e453d6b28e0969123cc65cccd5220f7a7bfab0</t>
   </si>
   <si>
-    <r>
-      <t>562 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>129 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>22. Update "@theme/ components &amp; layouts"</t>
   </si>
   <si>
@@ -901,38 +522,6 @@
   </si>
   <si>
     <t>9893d85e59b5ee28753c1ae2080bf9cc42011a2e</t>
-  </si>
-  <si>
-    <r>
-      <t>535 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>28,291 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>23. Updated the other files in "@theme/ components &amp; layouts"</t>
@@ -967,38 +556,6 @@
     <t>9 changed files</t>
   </si>
   <si>
-    <r>
-      <t>147 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>224 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>9b2460bfab1deef0ad4a2262cca728baee354eb9</t>
   </si>
   <si>
@@ -1006,38 +563,6 @@
   </si>
   <si>
     <t>0df7406dc2e38e3a4b036b4aabad0d4be6078453</t>
-  </si>
-  <si>
-    <r>
-      <t>424 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>742 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>1 parent 9893d85 </t>
@@ -1082,38 +607,6 @@
     <t>f141dd65d9d4cae1e8b0eea04951a6291cf83e15</t>
   </si>
   <si>
-    <r>
-      <t>132 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>125 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>25b. Corrected Warnings in @theme/components/tiny-mce files</t>
   </si>
   <si>
@@ -1128,38 +621,6 @@
   </si>
   <si>
     <t>46fd768d0688f5522aec5c767af3f2fb840d10fa</t>
-  </si>
-  <si>
-    <r>
-      <t>33 additions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>31 deletions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>26. Corrected Warning in various files </t>
@@ -1238,8 +699,119 @@
     <t>06e78f523f84a35f073a7b9e7615208f9b8c07c7</t>
   </si>
   <si>
+    <t>27. Fixed last warnings</t>
+  </si>
+  <si>
+    <t>15 changed files</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>Ran without warnings</t>
+  </si>
+  <si>
+    <t>1 parent 06e78f5</t>
+  </si>
+  <si>
+    <t>535df5af0e73b859e37a4f1accd7af8008d3a3ce</t>
+  </si>
+  <si>
+    <t>28 additions and 56 deletions.</t>
+  </si>
+  <si>
+    <t>54 additions and 24 deletions.</t>
+  </si>
+  <si>
+    <t>54 additions and 292 deletions.</t>
+  </si>
+  <si>
+    <t>87 additions and 36 deletions.</t>
+  </si>
+  <si>
+    <t>44 additions and 59 deletions.</t>
+  </si>
+  <si>
+    <t>67 additions and 26 deletions.</t>
+  </si>
+  <si>
+    <t>17 additions and 18 deletions.</t>
+  </si>
+  <si>
+    <t>88 additions and 100 deletions.</t>
+  </si>
+  <si>
+    <t>562 additions and 129 deletions.</t>
+  </si>
+  <si>
+    <t>535 additions and 28,291 deletions.</t>
+  </si>
+  <si>
+    <t>424 additions and 742 deletions.</t>
+  </si>
+  <si>
+    <t>2 changed files </t>
+  </si>
+  <si>
+    <t>3 changed files </t>
+  </si>
+  <si>
+    <t>6 changed files </t>
+  </si>
+  <si>
+    <t>4 changed files </t>
+  </si>
+  <si>
+    <t>147 additions and 224 deletions.</t>
+  </si>
+  <si>
+    <t>132 additions and 125 deletions.</t>
+  </si>
+  <si>
+    <t>33 additions and 31 deletions.</t>
+  </si>
+  <si>
+    <t>375 additions and 294 deletions.</t>
+  </si>
+  <si>
+    <t>342 additions and 430 deletions.</t>
+  </si>
+  <si>
+    <t>29. Switched to "jhi-main" in index.html </t>
+  </si>
+  <si>
+    <t>28. Fixed all broken migration issues</t>
+  </si>
+  <si>
+    <t>Attempting to use original infastructure.</t>
+  </si>
+  <si>
     <r>
-      <t>375 additions</t>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>6 changed files</t>
+    </r>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>1 parent 2fec5c3</t>
+  </si>
+  <si>
+    <t>c3d9fc338ad245a0fde711a23669ef6cef73129d</t>
+  </si>
+  <si>
+    <r>
+      <t>327 additions</t>
     </r>
     <r>
       <rPr>
@@ -1257,7 +829,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>294 deletions</t>
+      <t>209 deletions</t>
     </r>
     <r>
       <rPr>
@@ -1270,13 +842,7 @@
     </r>
   </si>
   <si>
-    <t>27. Fixed last warnings</t>
-  </si>
-  <si>
-    <t>15 changed files</t>
-  </si>
-  <si>
-    <t>#27</t>
+    <t>MissionSuccess!!</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="12">
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -1330,12 +896,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF05264C"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF444D56"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -1347,19 +907,7 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF444D56"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1371,31 +919,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0366D6"/>
-      <name val="Segoe UI"/>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1443,7 +979,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1499,46 +1035,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,87 +1081,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <b val="0"/>
@@ -2202,31 +1655,31 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="Employee Training Tracker - Log" defaultPivotStyle="PivotTable Style 1">
     <tableStyle name="Employee Training Tracker" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Info" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="totalRow" dxfId="26"/>
-      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
     </tableStyle>
     <tableStyle name="Employee Training Tracker - Log" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
     </tableStyle>
     <tableStyle name="PivotTable Style 1" table="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -2252,7 +1705,7 @@
         <xdr:cNvPr id="5" name="Training Log" descr="&quot;&quot;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +1804,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Click to view Course List"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +1884,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Click to view Personal Info"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +1972,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2" descr="&quot;&quot;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2033,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns="" Requires="sle15">
+      <mc:Choice xmlns="" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="NAME" descr="Click a name in the Slicer to filter the Training Log by your selection. " title="Name Slicer">
@@ -2658,7 +2111,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns="" Requires="sle15">
+      <mc:Choice xmlns="" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="COURSE" descr="Click a course in the Slicer to filter the Training Log by your selection. " title="Course Slicer">
@@ -2736,7 +2189,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns="" Requires="sle15">
+      <mc:Choice xmlns="" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="TAKEN" descr="Click an entry in the Slicer to filter the Training Log by your selection. " title="Taken Slicer">
@@ -2824,7 +2277,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Click to view Training Log"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2356,7 @@
         <xdr:cNvPr id="7" name="Course List" descr="&quot;&quot;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +2458,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Click to view Personal Info"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +2537,7 @@
         <xdr:cNvPr id="2" name="Tip" descr="To help make sure each course is listed once, duplicate course titles will display in Red. &#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +2685,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Click to view Training Log"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +2765,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Click to view Course List"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +2844,7 @@
         <xdr:cNvPr id="8" name="Personnel Info" descr="&quot;&quot;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +2911,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8" descr="&quot;&quot;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3519,8 +2972,8 @@
     <filterColumn colId="10"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="16"/>
-    <tableColumn id="3" name="TIME" dataDxfId="15"/>
+    <tableColumn id="4" name="DATE OF COMMIT" dataDxfId="11"/>
+    <tableColumn id="3" name="TIME" dataDxfId="10"/>
     <tableColumn id="1" name="DEVELOPER"/>
     <tableColumn id="2" name="FEATURE"/>
     <tableColumn id="5" name="DETAILS"/>
@@ -3542,24 +2995,24 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="FEATURE"/>
-    <tableColumn id="2" name="DESCRIPTION" dataDxfId="13"/>
-    <tableColumn id="3" name="FILE" dataDxfId="12"/>
-    <tableColumn id="4" name="HOURS" dataDxfId="11"/>
+    <tableColumn id="2" name="DESCRIPTION" dataDxfId="8"/>
+    <tableColumn id="3" name="FILE" dataDxfId="7"/>
+    <tableColumn id="4" name="HOURS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - List" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblEmployeeInfo" displayName="tblEmployeeInfo" ref="C5:F50" totalsRowShown="0" dataDxfId="4" headerRowCellStyle="Heading 2">
   <autoFilter ref="C5:F50">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="NAME" dataDxfId="8"/>
-    <tableColumn id="2" name="Department" dataDxfId="7"/>
-    <tableColumn id="4" name="Title" dataDxfId="6"/>
-    <tableColumn id="3" name="HOURS" dataDxfId="5"/>
+    <tableColumn id="1" name="NAME" dataDxfId="3"/>
+    <tableColumn id="2" name="Department" dataDxfId="2"/>
+    <tableColumn id="4" name="Title" dataDxfId="1"/>
+    <tableColumn id="3" name="HOURS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Employee Training Tracker - Info" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3798,8 +3251,8 @@
   </sheetPr>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C35" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3810,7 +3263,7 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
@@ -3872,223 +3325,224 @@
       </c>
     </row>
     <row r="13" spans="3:13" ht="18" customHeight="1">
-      <c r="C13" s="17">
+      <c r="C13" s="23">
         <v>43141</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="24">
         <v>0.67013888888888884</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="26" t="s">
         <v>23</v>
       </c>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="3:13" ht="18" customHeight="1">
-      <c r="C14" s="17">
+      <c r="C14" s="23">
         <v>43141</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="24">
         <v>0.68402777777777779</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="21" customHeight="1">
-      <c r="C15" s="17">
+      <c r="C15" s="23">
         <v>43141</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="24">
         <v>0.69374999999999998</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="18" customHeight="1">
-      <c r="C16" s="17">
+      <c r="C16" s="23">
         <v>43141</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="24">
         <v>0.72152777777777777</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="18" customHeight="1">
-      <c r="C17" s="17">
+      <c r="C17" s="23">
         <v>43141</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="24">
         <v>0.78402777777777777</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="18" customHeight="1">
-      <c r="C18" s="17">
+      <c r="C18" s="23">
         <v>43141</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="24">
         <v>0.81597222222222221</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="30" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="18" customHeight="1">
-      <c r="C19" s="17">
+      <c r="C19" s="23">
         <v>43141</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="24">
         <v>0.87083333333333324</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="25" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="28" t="s">
@@ -4097,838 +3551,880 @@
       <c r="H19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="18" customHeight="1">
-      <c r="C20" s="17">
+      <c r="C20" s="23">
         <v>43141</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="24">
         <v>0.8881944444444444</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="18" customHeight="1">
-      <c r="C21" s="17">
+      <c r="C21" s="23">
         <v>43141</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="24">
         <v>0.92847222222222225</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="30" t="s">
         <v>74</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="18" customHeight="1">
-      <c r="C22" s="17">
+      <c r="C22" s="23">
         <v>43141</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="24">
         <v>0.94097222222222221</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="25" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="14" t="s">
+    </row>
+    <row r="23" spans="3:13" ht="18" customHeight="1">
+      <c r="C23" s="23">
+        <v>43141</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="G23" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="H23" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" ht="18" customHeight="1">
-      <c r="C23" s="17">
+      <c r="K23" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="18" customHeight="1">
+      <c r="C24" s="23">
         <v>43141</v>
       </c>
-      <c r="D23" s="15">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D24" s="24">
+        <v>0.95277777777777783</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="G24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="24" t="s">
+      <c r="J24" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" ht="18" customHeight="1">
-      <c r="C24" s="17">
+      <c r="K24" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="18" customHeight="1">
+      <c r="C25" s="23">
         <v>43141</v>
       </c>
-      <c r="D24" s="15">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D25" s="24">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="F25" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="31" t="s">
+      <c r="J25" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="K25" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" ht="18" customHeight="1">
-      <c r="C25" s="17">
+      <c r="L25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="18" customHeight="1">
+      <c r="C26" s="23">
         <v>43141</v>
       </c>
-      <c r="D25" s="15">
-        <v>0.97430555555555554</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D26" s="24">
+        <v>0.98749999999999993</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="G26" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="14" t="s">
+      <c r="J26" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="18" customHeight="1">
+      <c r="C27" s="23">
+        <v>43141</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="18" customHeight="1">
+      <c r="C28" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" ht="18" customHeight="1">
-      <c r="C26" s="17">
-        <v>43141</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.98749999999999993</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="I28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="18" customHeight="1">
+      <c r="C29" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="F29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="18" customHeight="1">
+      <c r="C30" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="18" customHeight="1">
-      <c r="C27" s="17">
-        <v>43141</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0.99236111111111114</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="I30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="18" customHeight="1">
+      <c r="C31" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D31" s="24">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="F31" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" ht="18" customHeight="1">
-      <c r="C28" s="17">
+      <c r="J31" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="18" customHeight="1">
+      <c r="C32" s="23">
         <v>43142</v>
       </c>
-      <c r="D28" s="15">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D32" s="24">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="F32" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" ht="18" customHeight="1">
-      <c r="C29" s="17">
+      <c r="J32" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="18" customHeight="1">
+      <c r="C33" s="23">
         <v>43142</v>
       </c>
-      <c r="D29" s="15">
-        <v>1.1805555555555555E-2</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D33" s="24">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="F33" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="18" customHeight="1">
-      <c r="C30" s="17">
+      <c r="J33" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="18" customHeight="1">
+      <c r="C34" s="23">
         <v>43142</v>
       </c>
-      <c r="D30" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D34" s="24">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="F34" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I34" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" ht="18" customHeight="1">
-      <c r="C31" s="17">
+      <c r="J34" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="18" customHeight="1">
+      <c r="C35" s="23">
         <v>43142</v>
       </c>
-      <c r="D31" s="15">
-        <v>4.6527777777777779E-2</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="D35" s="24">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="14" t="s">
+      <c r="F35" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="M31" s="27" t="s">
+      <c r="J35" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="18" customHeight="1">
+      <c r="C36" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" ht="18" customHeight="1">
-      <c r="C32" s="17">
+      <c r="H36" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="18" customHeight="1">
+      <c r="C37" s="23">
         <v>43142</v>
       </c>
-      <c r="D32" s="15">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D37" s="24">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="14" t="s">
+      <c r="F37" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="18" customHeight="1">
-      <c r="C33" s="17">
+      <c r="J37" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="18" customHeight="1">
+      <c r="C38" s="23">
         <v>43142</v>
       </c>
-      <c r="D33" s="15">
-        <v>6.1111111111111116E-2</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="D38" s="24">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="F38" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="18" customHeight="1">
-      <c r="C34" s="17">
+      <c r="J38" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="18" customHeight="1">
+      <c r="C39" s="23">
         <v>43142</v>
       </c>
-      <c r="D34" s="15">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D39" s="24">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" s="14" t="s">
+      <c r="F39" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" ht="18" customHeight="1">
-      <c r="C35" s="17">
+      <c r="J39" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="18" customHeight="1">
+      <c r="C40" s="23">
         <v>43142</v>
       </c>
-      <c r="D35" s="15">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="D40" s="24">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="F40" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" ht="18" customHeight="1">
-      <c r="C36" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="J40" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="18" customHeight="1">
+      <c r="C41" s="23">
+        <v>43143</v>
+      </c>
+      <c r="D41" s="24">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" s="14" t="s">
+      <c r="F41" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="18" customHeight="1">
-      <c r="C37" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0.57152777777777775</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="J41" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="18" customHeight="1">
+      <c r="C42" s="23">
+        <v>43143</v>
+      </c>
+      <c r="D42" s="15">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" ht="18" customHeight="1">
-      <c r="C38" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0.62361111111111112</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="F42" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="3:13" ht="18" customHeight="1">
+      <c r="C43" s="17"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="18" customHeight="1">
-      <c r="C39" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0.65833333333333333</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="F43" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="18" customHeight="1">
+      <c r="C44" s="17"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="18" customHeight="1">
-      <c r="C40" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0.81111111111111101</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="3:13" ht="18" customHeight="1">
+      <c r="C45" s="17"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" ht="18" customHeight="1">
-      <c r="C41" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D41" s="15">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="3:13" ht="18" customHeight="1">
+      <c r="C46" s="17"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" ht="18" customHeight="1">
-      <c r="C42" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" ht="18" customHeight="1">
-      <c r="C43" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D43" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" ht="18" customHeight="1">
-      <c r="C44" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D44" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" ht="18" customHeight="1">
-      <c r="C45" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D45" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" ht="18" customHeight="1">
-      <c r="C46" s="17">
-        <v>43142</v>
-      </c>
-      <c r="D46" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="3:13" ht="18" customHeight="1">
       <c r="C47" s="17"/>
-      <c r="D47" s="15">
-        <v>2.2916666666666669E-2</v>
-      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="3:13" ht="18" customHeight="1">
       <c r="C48" s="17"/>
       <c r="D48" s="15"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="3:4" ht="18" customHeight="1">
       <c r="C49" s="17"/>
@@ -6017,19 +5513,19 @@
       <c r="C327" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E14:E55 C13:D55 G37:G55 F42:F55 H42:H55 I41:I55 K41:K55 J42:J55">
-    <cfRule type="expression" dxfId="17" priority="4">
+  <conditionalFormatting sqref="J44:K55 I49:I55 G37:G40 C13:D55 E14:E55 F44:H55">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>#REF!="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G37:G55 F42:F55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This course  isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Course List sheet, it will automatically appear in the list." sqref="G37:G40 F44:G55">
       <formula1>Courses</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E46:E55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="Whoops!" error="This employee name isn’t in the drop down list. If what you typed isn’t a mistake you can click Yes and use it anyway. If you add the name the Personnel Info sheet, it will automatically appear in the list." sqref="E48:E55">
       <formula1>Employees</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="H42:H55 I41:I55 J42:J55">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="This should be a Yes or No value." sqref="I49:I55 J44:J55 H44:H55">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6064,102 +5560,106 @@
     <hyperlink ref="E39" r:id="rId28" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
     <hyperlink ref="E40" r:id="rId29" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
     <hyperlink ref="E41" r:id="rId30" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
-    <hyperlink ref="E42" r:id="rId31" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
-    <hyperlink ref="E43" r:id="rId32" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
-    <hyperlink ref="E44" r:id="rId33" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
-    <hyperlink ref="E45" r:id="rId34" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
-    <hyperlink ref="K14" r:id="rId35" display="https://github.com/Spirovanni/Pirate-Castle/commit/5f2199f4cf52f8fa4d90707a6073c41afae61bcf"/>
-    <hyperlink ref="J14" r:id="rId36" tooltip="Merged Pull Request: 0. Version added to README.md" display="https://github.com/Spirovanni/Pirate-Castle/pull/1"/>
-    <hyperlink ref="I14" r:id="rId37" display="https://github.com/Spirovanni/Pirate-Castle"/>
-    <hyperlink ref="J15" r:id="rId38" tooltip="Merged Pull Request: 1.  Added &quot;barbican&quot; and &quot;registry&quot; directory" display="https://github.com/Spirovanni/Pirate-Castle/pull/2"/>
-    <hyperlink ref="I15:I40" r:id="rId39" display="https://github.com/Spirovanni/Pirate-Castle"/>
-    <hyperlink ref="K15" r:id="rId40" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
-    <hyperlink ref="K16" r:id="rId41" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
-    <hyperlink ref="J16" r:id="rId42" tooltip="Merged Pull Request: 2. Generated jhipster in &quot;barbican&quot; folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/3"/>
-    <hyperlink ref="F17" r:id="rId43" tooltip="3. Added &quot;registry&quot; files from github_x000a__x000a_Add &quot;version&quot;: &quot;3.2.4&quot;, to registry folder" display="https://github.com/Spirovanni/Pirate-Castle/commit/157613ac95fb783a249dd083f17e13a22ce90a40"/>
-    <hyperlink ref="J17" r:id="rId44" tooltip="Merged Pull Request: 3. Added &quot;registry&quot; files from github" display="https://github.com/Spirovanni/Pirate-Castle/pull/4"/>
-    <hyperlink ref="K17" r:id="rId45" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
-    <hyperlink ref="F16" r:id="rId46" tooltip="2. Generated jhipster in &quot;barbican&quot; folder_x000a__x000a_Application files will be generated in folder: C:\Users\Staff2\dev\Pirate-Castle\barbican_x000a_? Which *type* of application would you like to create? Microservice gateway_x000a_? What is the base name of your application?" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
-    <hyperlink ref="F15" r:id="rId47" tooltip="1.  Added &quot;barbican&quot; and &quot;registry&quot; directory_x000a__x000a_C:\Users\Staff2\dev\Pirate-Castle&gt;mkdir registry &amp; mkdir barbican" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
-    <hyperlink ref="F14" r:id="rId48" tooltip="0. Version added to README.md_x000a__x000a_First update from GitKraken" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
-    <hyperlink ref="F18" r:id="rId49" tooltip="4. Dependency merge;_x000a__x000a_We need to add dependencies to package.json from ngx-admin/package.json that is not exists. Also you need to check version of dependency that is already exists. You can pick ngx-admin version if it is upper." display="https://github.com/Spirovanni/Pirate-Castle/commit/f808899cd659b6f1b7d643304a93c850ef924724"/>
-    <hyperlink ref="J18" r:id="rId50" tooltip="Merged Pull Request: 4. Dependency merge;" display="https://github.com/Spirovanni/Pirate-Castle/pull/5"/>
-    <hyperlink ref="K18" r:id="rId51" display="https://github.com/Spirovanni/Pirate-Castle/commit/157613ac95fb783a249dd083f17e13a22ce90a40"/>
-    <hyperlink ref="F19" r:id="rId52" tooltip="5. Copy ngx-admin ui-component files;_x000a__x000a_mkdir src/main/webapp/app/ngx-admin;_x000a_cp -R ../ngx-admin/src/app/* src/main/webapp/app/ngx-admin/" display="https://github.com/Spirovanni/Pirate-Castle/commit/f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c"/>
-    <hyperlink ref="J19" r:id="rId53" tooltip="Merged Pull Request: 5. Copy ngx-admin ui-component files;" display="https://github.com/Spirovanni/Pirate-Castle/pull/6"/>
-    <hyperlink ref="K19" r:id="rId54" display="https://github.com/Spirovanni/Pirate-Castle/commit/f808899cd659b6f1b7d643304a93c850ef924724"/>
-    <hyperlink ref="F20" r:id="rId55" tooltip="6. bootstrapModule switched to ngx-admin app-module_x000a__x000a_Updated &quot;app.main.ts&quot; file." display="https://github.com/Spirovanni/Pirate-Castle/commit/39858907d928bca6401f2c6e8a0af5a5ec8e9b66"/>
-    <hyperlink ref="J20" r:id="rId56" tooltip="Merged Pull Request: 6. bootstrapModule switched to ngx-admin app-module" display="https://github.com/Spirovanni/Pirate-Castle/pull/7"/>
-    <hyperlink ref="K20" r:id="rId57" display="https://github.com/Spirovanni/Pirate-Castle/commit/f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c"/>
-    <hyperlink ref="F21" r:id="rId58" tooltip="7. Overwrite index.html from ngx-admin_x000a__x000a_cp ../ngx-admin/src/index.html src/main/webapp/index.html" display="https://github.com/Spirovanni/Pirate-Castle/commit/69dadbfad32c827cecb95c9b367c3de783686e0a"/>
-    <hyperlink ref="J21" r:id="rId59" tooltip="Merged Pull Request: 7. Overwrite index.html from ngx-admin" display="https://github.com/Spirovanni/Pirate-Castle/pull/8"/>
-    <hyperlink ref="K21" r:id="rId60" display="https://github.com/Spirovanni/Pirate-Castle/commit/39858907d928bca6401f2c6e8a0af5a5ec8e9b66"/>
-    <hyperlink ref="F22" r:id="rId61" tooltip="9. Fix &quot;Cannot find name 'tinymce'&quot; error_x000a__x000a_cp ../ngx-admin/src/typings.d.ts src/main/webapp/app/ngx-admin/_x000a_and import it in app-module" display="https://github.com/Spirovanni/Pirate-Castle/commit/5d289bfe0f7312af450d76f10b941b4ebd23f8b9"/>
-    <hyperlink ref="J22" r:id="rId62" tooltip="Merged Pull Request: 9. Fix &quot;Cannot find name 'tinymce'&quot; error" display="https://github.com/Spirovanni/Pirate-Castle/pull/9"/>
-    <hyperlink ref="K22" r:id="rId63" display="https://github.com/Spirovanni/Pirate-Castle/commit/69dadbfad32c827cecb95c9b367c3de783686e0a"/>
-    <hyperlink ref="F23" r:id="rId64" tooltip="10. Fix Error: Cannot find module 'app/pages/pages.module'._x000a__x000a_Setting a clean path" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
-    <hyperlink ref="J23" r:id="rId65" tooltip="Merged Pull Request: 10. Fix Error: Cannot find module 'app/pages/pages.module'." display="https://github.com/Spirovanni/Pirate-Castle/pull/10"/>
-    <hyperlink ref="K23" r:id="rId66" display="https://github.com/Spirovanni/Pirate-Castle/commit/5d289bfe0f7312af450d76f10b941b4ebd23f8b9"/>
-    <hyperlink ref="F24" r:id="rId67" tooltip="11. Copy the assets folder_x000a__x000a_cp -R ../ngx-admin/src/assets ./src/main/webapp/app/ngx-admin/" display="https://github.com/Spirovanni/Pirate-Castle/commit/0e436298741ae99a17beacbdfc7ce587d7f03fda"/>
-    <hyperlink ref="J24" r:id="rId68" tooltip="Merged Pull Request: 11. Copy the assets folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/11"/>
-    <hyperlink ref="K24" r:id="rId69" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
-    <hyperlink ref="F25" r:id="rId70" tooltip="12. Configure webpack/webpack.common.js to copy assets folder to targt we…_x000a__x000a_…b folder to be able to served from application" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
-    <hyperlink ref="J25" r:id="rId71" tooltip="Merged Pull Request: 12. Configure webpack/webpack.common.js to copy assets folder to targ…" display="https://github.com/Spirovanni/Pirate-Castle/pull/12"/>
-    <hyperlink ref="K25" r:id="rId72" display="https://github.com/Spirovanni/Pirate-Castle/commit/0e436298741ae99a17beacbdfc7ce587d7f03fda"/>
-    <hyperlink ref="F26" r:id="rId73" tooltip="13. Location update for new assets folder in rooms component scss_x000a__x000a_Location change because of positioning" display="https://github.com/Spirovanni/Pirate-Castle/commit/d8f32fab62468081b5d66cf40e12068572e4c21f"/>
-    <hyperlink ref="J26" r:id="rId74" tooltip="Merged Pull Request: 13. Location update for new assets folder in rooms component scss" display="https://github.com/Spirovanni/Pirate-Castle/pull/13"/>
-    <hyperlink ref="K26" r:id="rId75" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
-    <hyperlink ref="F27" r:id="rId76" tooltip="14. Import ngx-admin theme and styles config in vendor.scss_x000a__x000a_Connecting SCSS files" display="https://github.com/Spirovanni/Pirate-Castle/commit/b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9"/>
-    <hyperlink ref="J27" r:id="rId77" tooltip="Merged Pull Request: 14. Import ngx-admin theme and styles config in vendor.scss" display="https://github.com/Spirovanni/Pirate-Castle/pull/14"/>
-    <hyperlink ref="K27" r:id="rId78" display="https://github.com/Spirovanni/Pirate-Castle/commit/d8f32fab62468081b5d66cf40e12068572e4c21f"/>
-    <hyperlink ref="F28" r:id="rId79" tooltip="15. Clear jhipster bootstrap style configs that can conflict with_x000a__x000a_ngx-admin styles" display="https://github.com/Spirovanni/Pirate-Castle/commit/327e5ddc66f329c757c423fef55590b75726dfeb"/>
-    <hyperlink ref="J28" r:id="rId80" tooltip="Merged Pull Request: 15. Clear jhipster bootstrap style configs that can conflict with" display="https://github.com/Spirovanni/Pirate-Castle/pull/15"/>
-    <hyperlink ref="K28" r:id="rId81" display="https://github.com/Spirovanni/Pirate-Castle/commit/b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9"/>
-    <hyperlink ref="F29" r:id="rId82" tooltip="17. Echarts dependency install and compnent configs applied._x000a__x000a_npm install echarts@3.7.2 --save;" display="https://github.com/Spirovanni/Pirate-Castle/commit/d481422865fb0045eecc23700b50649ffd1be0db"/>
-    <hyperlink ref="J29" r:id="rId83" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/16"/>
-    <hyperlink ref="K29" r:id="rId84" display="https://github.com/Spirovanni/Pirate-Castle/commit/70338c0506ae76b4d289c0bee4a0b3d96344f399"/>
-    <hyperlink ref="F30" r:id="rId85" tooltip="18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
-    <hyperlink ref="J30" r:id="rId86" tooltip="Merged Pull Request: 18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/pull/17"/>
-    <hyperlink ref="K30" r:id="rId87" display="https://github.com/Spirovanni/Pirate-Castle/commit/d481422865fb0045eecc23700b50649ffd1be0db"/>
-    <hyperlink ref="F31" r:id="rId88" tooltip="18. String based lazy router loading fixes." display="https://github.com/Spirovanni/Pirate-Castle/commit/6cef9c251affc1695a2b4bda5a3fa66ac419a283"/>
-    <hyperlink ref="J31" r:id="rId89" tooltip="Merged Pull Request: 18. String based lazy router loading fixes." display="https://github.com/Spirovanni/Pirate-Castle/pull/18"/>
-    <hyperlink ref="K31" r:id="rId90" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
-    <hyperlink ref="F32" r:id="rId91" tooltip="19. Echarts world component js added_x000a__x000a_None" display="https://github.com/Spirovanni/Pirate-Castle/commit/3628054f0bfea6114f7867d8febf92d3ca38ca0f"/>
-    <hyperlink ref="J32" r:id="rId92" tooltip="Merged Pull Request: 19. Echarts world component js added" display="https://github.com/Spirovanni/Pirate-Castle/pull/19"/>
-    <hyperlink ref="K32" r:id="rId93" display="https://github.com/Spirovanni/Pirate-Castle/commit/6cef9c251affc1695a2b4bda5a3fa66ac419a283"/>
-    <hyperlink ref="F33" r:id="rId94" tooltip="20. Adding Doc folder_x000a__x000a_created scripts.txt file" display="https://github.com/Spirovanni/Pirate-Castle/commit/4187afd07e808429beb3e235e4bc8bff6758e488"/>
-    <hyperlink ref="J33" r:id="rId95" tooltip="Merged Pull Request: 20. Adding Doc folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/20"/>
-    <hyperlink ref="K33" r:id="rId96" display="https://github.com/Spirovanni/Pirate-Castle/commit/3628054f0bfea6114f7867d8febf92d3ca38ca0f"/>
-    <hyperlink ref="F34" r:id="rId97" tooltip="21. Updated charts folder_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
-    <hyperlink ref="J34" r:id="rId98" tooltip="Merged Pull Request: 21. Updated charts folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/21"/>
-    <hyperlink ref="K34" r:id="rId99" display="https://github.com/Spirovanni/Pirate-Castle/commit/4187afd07e808429beb3e235e4bc8bff6758e488"/>
-    <hyperlink ref="F35" r:id="rId100" tooltip="22. Update &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
-    <hyperlink ref="J35" r:id="rId101" tooltip="Merged Pull Request: 22. Update &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/22"/>
-    <hyperlink ref="K35" r:id="rId102" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
-    <hyperlink ref="F36" r:id="rId103" tooltip="23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
-    <hyperlink ref="J36" r:id="rId104" tooltip="Merged Pull Request: 23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/23"/>
-    <hyperlink ref="F37" r:id="rId105" tooltip="24. Corrected Warnings in pages/charts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-multiple-xaxis.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-pie.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-radar.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-line.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-bar.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-bar-horizontal.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition" display="https://github.com/Spirovanni/Pirate-Castle/commit/9b2460bfab1deef0ad4a2262cca728baee354eb9"/>
-    <hyperlink ref="J37" r:id="rId106" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
-    <hyperlink ref="K37" r:id="rId107" display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
-    <hyperlink ref="K36" r:id="rId108" display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
-    <hyperlink ref="F38" r:id="rId109" tooltip="25. Corrected Warnings in pages/charts/echarts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/ui-features/buttons/hero-buttons/hero-buttons.component.ts_x000a_[16, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-area-stack.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsAreaStackComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsBarComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-line.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsLineComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-pie.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsPieComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-radar.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsRadarComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-multiple-xaxis.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_[61, 28]: Parentheses are required around the parameters of an arrow function definition_x000a_[101, 28]: Parentheses are required around the parameters of an arrow function definition_x000a_[5, 13]: The selector of the component &quot;EchartsMultipleXaxisComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts-bar-animation.component.ts_x000a_[18, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_ [5, 13]: The selector of the component &quot;EchartsBarAnimationComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
-    <hyperlink ref="J38" r:id="rId110" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
-    <hyperlink ref="K38" r:id="rId111" display="https://github.com/Spirovanni/Pirate-Castle/commit/9b2460bfab1deef0ad4a2262cca728baee354eb9"/>
-    <hyperlink ref="F39" r:id="rId112" tooltip="25b. Corrected Warnings in @theme/components/tiny-mce files_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/@theme/components/tiny-mce/tiny-mce.component.ts_x000a_[20, 14]: Parentheses are required around the parameters of an arrow function definition" display="https://github.com/Spirovanni/Pirate-Castle/commit/46fd768d0688f5522aec5c767af3f2fb840d10fa"/>
-    <hyperlink ref="K39" r:id="rId113" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
-    <hyperlink ref="J39" r:id="rId114" tooltip="Merged Pull Request: 25b. Corrected Warnings in @theme/components/tiny-mce files" display="https://github.com/Spirovanni/Pirate-Castle/pull/25"/>
-    <hyperlink ref="F40" r:id="rId115" tooltip="26. Corrected Warning in various files_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/dashboard.module.ts_x000a_[23, 1]: Consecutive blank lines are forbidden_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature.component.ts_x000a_[23, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/electricity/electricity.component.ts_x000a_[24, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/traffic/traffic-chart.component.ts_x000a_[26, 73]: Parentheses are required around the parameters of an arrow function definition_x000a_[101, 30]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/d3/d3-pie.component.ts_x000a_[27, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/maps/bubble/bubble-map.component.ts_x000a_[31, 18]: Parentheses are required around the parameters of an arrow function definition_x000a_[471, 24]: Parentheses are required around the parameters of an arrow function definition_x000a_[508, 38]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/d3/d3-advanced-pie.component.ts_x000a_[32, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/traffic/traffic.component.ts_x000a_[34, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/echarts/echarts.component.ts_x000a_[4, 13]: The selector of the component &quot;EchartsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/editors/editors.component.ts_x000a_[4, 13]: The selector of the component &quot;EditorsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/form-inputs/form-inputs.component.ts_x000a_[4, 13]: The selector of the component &quot;FormInputsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/form-layouts/form-layouts.component.ts_x000a_[4, 13]: The selector of the component &quot;FormLayoutsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/forms/forms.component.ts_x000a_[4, 13]: The selector of the component &quot;FormsComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/editors/tiny-mce/tiny-mce.component.ts_x000a_[4, 13]: The selector of the component &quot;TinyMCEComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/@core/core.module.ts_x000a_[41, 3]: Declaration of static method not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/solar/solar.component.ts_x000a_[44, 73]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/electricity/electricity-chart/electricity-chart.component.ts_x000a_[44, 73]: Parentheses are required around the parameters of an arrow function definition_x000a_[79, 33]: Parentheses are required around the parameters of an arrow function definition_x000a_[158, 35]: Parentheses are required around the parameters of an arrow function definition_x000a_[181, 35]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/components/tree/tree.component.ts_x000a_[5, 13]: The selector of the component &quot;TreeComponent&quot; should have prefix &quot;jhi&quot; (https://angular.io/styleguide#style-02-07)_x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature-dragger/temperature-dragger.component.ts_x000a_[52, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[53, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[55, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[56, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[57, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[58, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[59, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[60, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[61, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[62, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[63, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[65, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[75, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[76, 3]: Declaration of instance field not allowed after declaration of instance method. Instead, this should come at the beginning of the class/interface._x000a_[350, 3]: Declaration of static method not allowed after declaration of instance method. Instead, this should come after instance fields._x000a_[143, 1]: Consecutive blank lines are forbidden" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e78f523f84a35f073a7b9e7615208f9b8c07c7"/>
-    <hyperlink ref="J40" r:id="rId116" tooltip="Merged Pull Request: 26. Corrected Warning in various files" display="https://github.com/Spirovanni/Pirate-Castle/pull/26"/>
-    <hyperlink ref="K40" r:id="rId117" display="https://github.com/Spirovanni/Pirate-Castle/commit/46fd768d0688f5522aec5c767af3f2fb840d10fa"/>
-    <hyperlink ref="F41" r:id="rId118" tooltip="27. Fixed last warnings_x000a__x000a_Ran without warnings" display="https://github.com/Spirovanni/Pirate-Castle/commit/535df5af0e73b859e37a4f1accd7af8008d3a3ce"/>
-    <hyperlink ref="J41" r:id="rId119" tooltip="Merged Pull Request: 27. Fixed last warnings" display="https://github.com/Spirovanni/Pirate-Castle/pull/27"/>
+    <hyperlink ref="K14" r:id="rId31" display="https://github.com/Spirovanni/Pirate-Castle/commit/5f2199f4cf52f8fa4d90707a6073c41afae61bcf"/>
+    <hyperlink ref="J14" r:id="rId32" tooltip="Merged Pull Request: 0. Version added to README.md" display="https://github.com/Spirovanni/Pirate-Castle/pull/1"/>
+    <hyperlink ref="I14" r:id="rId33" display="https://github.com/Spirovanni/Pirate-Castle"/>
+    <hyperlink ref="J15" r:id="rId34" tooltip="Merged Pull Request: 1.  Added &quot;barbican&quot; and &quot;registry&quot; directory" display="https://github.com/Spirovanni/Pirate-Castle/pull/2"/>
+    <hyperlink ref="I15:I40" r:id="rId35" display="https://github.com/Spirovanni/Pirate-Castle"/>
+    <hyperlink ref="K15" r:id="rId36" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
+    <hyperlink ref="K16" r:id="rId37" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
+    <hyperlink ref="J16" r:id="rId38" tooltip="Merged Pull Request: 2. Generated jhipster in &quot;barbican&quot; folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/3"/>
+    <hyperlink ref="F17" r:id="rId39" tooltip="3. Added &quot;registry&quot; files from github_x000a__x000a_Add &quot;version&quot;: &quot;3.2.4&quot;, to registry folder" display="https://github.com/Spirovanni/Pirate-Castle/commit/157613ac95fb783a249dd083f17e13a22ce90a40"/>
+    <hyperlink ref="J17" r:id="rId40" tooltip="Merged Pull Request: 3. Added &quot;registry&quot; files from github" display="https://github.com/Spirovanni/Pirate-Castle/pull/4"/>
+    <hyperlink ref="K17" r:id="rId41" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
+    <hyperlink ref="F16" r:id="rId42" tooltip="2. Generated jhipster in &quot;barbican&quot; folder_x000a__x000a_Application files will be generated in folder: C:\Users\Staff2\dev\Pirate-Castle\barbican_x000a_? Which *type* of application would you like to create? Microservice gateway_x000a_? What is the base name of your application?" display="https://github.com/Spirovanni/Pirate-Castle/commit/5a16089bca5dbf91aff00987f2817cf484984adb"/>
+    <hyperlink ref="F15" r:id="rId43" tooltip="1.  Added &quot;barbican&quot; and &quot;registry&quot; directory_x000a__x000a_C:\Users\Staff2\dev\Pirate-Castle&gt;mkdir registry &amp; mkdir barbican" display="https://github.com/Spirovanni/Pirate-Castle/commit/9ba6b022fbe34293ee459f682bf32e0ddde23494"/>
+    <hyperlink ref="F14" r:id="rId44" tooltip="0. Version added to README.md_x000a__x000a_First update from GitKraken" display="https://github.com/Spirovanni/Pirate-Castle/commit/56d2d5e17e4c7ef5b9408e639fad07ddb648a8f2"/>
+    <hyperlink ref="F18" r:id="rId45" tooltip="4. Dependency merge;_x000a__x000a_We need to add dependencies to package.json from ngx-admin/package.json that is not exists. Also you need to check version of dependency that is already exists. You can pick ngx-admin version if it is upper." display="https://github.com/Spirovanni/Pirate-Castle/commit/f808899cd659b6f1b7d643304a93c850ef924724"/>
+    <hyperlink ref="J18" r:id="rId46" tooltip="Merged Pull Request: 4. Dependency merge;" display="https://github.com/Spirovanni/Pirate-Castle/pull/5"/>
+    <hyperlink ref="K18" r:id="rId47" display="https://github.com/Spirovanni/Pirate-Castle/commit/157613ac95fb783a249dd083f17e13a22ce90a40"/>
+    <hyperlink ref="F19" r:id="rId48" tooltip="5. Copy ngx-admin ui-component files;_x000a__x000a_mkdir src/main/webapp/app/ngx-admin;_x000a_cp -R ../ngx-admin/src/app/* src/main/webapp/app/ngx-admin/" display="https://github.com/Spirovanni/Pirate-Castle/commit/f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c"/>
+    <hyperlink ref="J19" r:id="rId49" tooltip="Merged Pull Request: 5. Copy ngx-admin ui-component files;" display="https://github.com/Spirovanni/Pirate-Castle/pull/6"/>
+    <hyperlink ref="K19" r:id="rId50" display="https://github.com/Spirovanni/Pirate-Castle/commit/f808899cd659b6f1b7d643304a93c850ef924724"/>
+    <hyperlink ref="F20" r:id="rId51" tooltip="6. bootstrapModule switched to ngx-admin app-module_x000a__x000a_Updated &quot;app.main.ts&quot; file." display="https://github.com/Spirovanni/Pirate-Castle/commit/39858907d928bca6401f2c6e8a0af5a5ec8e9b66"/>
+    <hyperlink ref="J20" r:id="rId52" tooltip="Merged Pull Request: 6. bootstrapModule switched to ngx-admin app-module" display="https://github.com/Spirovanni/Pirate-Castle/pull/7"/>
+    <hyperlink ref="K20" r:id="rId53" display="https://github.com/Spirovanni/Pirate-Castle/commit/f3d4bd83b06bd8d5cd95ce38960b6a82fb221a5c"/>
+    <hyperlink ref="F21" r:id="rId54" tooltip="7. Overwrite index.html from ngx-admin_x000a__x000a_cp ../ngx-admin/src/index.html src/main/webapp/index.html" display="https://github.com/Spirovanni/Pirate-Castle/commit/69dadbfad32c827cecb95c9b367c3de783686e0a"/>
+    <hyperlink ref="J21" r:id="rId55" tooltip="Merged Pull Request: 7. Overwrite index.html from ngx-admin" display="https://github.com/Spirovanni/Pirate-Castle/pull/8"/>
+    <hyperlink ref="K21" r:id="rId56" display="https://github.com/Spirovanni/Pirate-Castle/commit/39858907d928bca6401f2c6e8a0af5a5ec8e9b66"/>
+    <hyperlink ref="F22" r:id="rId57" tooltip="9. Fix &quot;Cannot find name 'tinymce'&quot; error_x000a__x000a_cp ../ngx-admin/src/typings.d.ts src/main/webapp/app/ngx-admin/_x000a_and import it in app-module" display="https://github.com/Spirovanni/Pirate-Castle/commit/5d289bfe0f7312af450d76f10b941b4ebd23f8b9"/>
+    <hyperlink ref="J22" r:id="rId58" tooltip="Merged Pull Request: 9. Fix &quot;Cannot find name 'tinymce'&quot; error" display="https://github.com/Spirovanni/Pirate-Castle/pull/9"/>
+    <hyperlink ref="K22" r:id="rId59" display="https://github.com/Spirovanni/Pirate-Castle/commit/69dadbfad32c827cecb95c9b367c3de783686e0a"/>
+    <hyperlink ref="F23" r:id="rId60" tooltip="10. Fix Error: Cannot find module 'app/pages/pages.module'._x000a__x000a_Setting a clean path" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
+    <hyperlink ref="J23" r:id="rId61" tooltip="Merged Pull Request: 10. Fix Error: Cannot find module 'app/pages/pages.module'." display="https://github.com/Spirovanni/Pirate-Castle/pull/10"/>
+    <hyperlink ref="K23" r:id="rId62" display="https://github.com/Spirovanni/Pirate-Castle/commit/5d289bfe0f7312af450d76f10b941b4ebd23f8b9"/>
+    <hyperlink ref="F24" r:id="rId63" tooltip="11. Copy the assets folder_x000a__x000a_cp -R ../ngx-admin/src/assets ./src/main/webapp/app/ngx-admin/" display="https://github.com/Spirovanni/Pirate-Castle/commit/0e436298741ae99a17beacbdfc7ce587d7f03fda"/>
+    <hyperlink ref="J24" r:id="rId64" tooltip="Merged Pull Request: 11. Copy the assets folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/11"/>
+    <hyperlink ref="K24" r:id="rId65" display="https://github.com/Spirovanni/Pirate-Castle/commit/2e901a51134984e3cf4a46e4f000f9bf629b9d28"/>
+    <hyperlink ref="F25" r:id="rId66" tooltip="12. Configure webpack/webpack.common.js to copy assets folder to targt we…_x000a__x000a_…b folder to be able to served from application" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
+    <hyperlink ref="J25" r:id="rId67" tooltip="Merged Pull Request: 12. Configure webpack/webpack.common.js to copy assets folder to targ…" display="https://github.com/Spirovanni/Pirate-Castle/pull/12"/>
+    <hyperlink ref="K25" r:id="rId68" display="https://github.com/Spirovanni/Pirate-Castle/commit/0e436298741ae99a17beacbdfc7ce587d7f03fda"/>
+    <hyperlink ref="F26" r:id="rId69" tooltip="13. Location update for new assets folder in rooms component scss_x000a__x000a_Location change because of positioning" display="https://github.com/Spirovanni/Pirate-Castle/commit/d8f32fab62468081b5d66cf40e12068572e4c21f"/>
+    <hyperlink ref="J26" r:id="rId70" tooltip="Merged Pull Request: 13. Location update for new assets folder in rooms component scss" display="https://github.com/Spirovanni/Pirate-Castle/pull/13"/>
+    <hyperlink ref="K26" r:id="rId71" display="https://github.com/Spirovanni/Pirate-Castle/commit/ef60494acc6a007fa853cd1557175e4ce52e4b30"/>
+    <hyperlink ref="F27" r:id="rId72" tooltip="14. Import ngx-admin theme and styles config in vendor.scss_x000a__x000a_Connecting SCSS files" display="https://github.com/Spirovanni/Pirate-Castle/commit/b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9"/>
+    <hyperlink ref="J27" r:id="rId73" tooltip="Merged Pull Request: 14. Import ngx-admin theme and styles config in vendor.scss" display="https://github.com/Spirovanni/Pirate-Castle/pull/14"/>
+    <hyperlink ref="K27" r:id="rId74" display="https://github.com/Spirovanni/Pirate-Castle/commit/d8f32fab62468081b5d66cf40e12068572e4c21f"/>
+    <hyperlink ref="F28" r:id="rId75" tooltip="15. Clear jhipster bootstrap style configs that can conflict with_x000a__x000a_ngx-admin styles" display="https://github.com/Spirovanni/Pirate-Castle/commit/327e5ddc66f329c757c423fef55590b75726dfeb"/>
+    <hyperlink ref="J28" r:id="rId76" tooltip="Merged Pull Request: 15. Clear jhipster bootstrap style configs that can conflict with" display="https://github.com/Spirovanni/Pirate-Castle/pull/15"/>
+    <hyperlink ref="K28" r:id="rId77" display="https://github.com/Spirovanni/Pirate-Castle/commit/b82c1fd4f4ea02cceb9f786aac12ea88ac0eb1c9"/>
+    <hyperlink ref="F29" r:id="rId78" tooltip="17. Echarts dependency install and compnent configs applied._x000a__x000a_npm install echarts@3.7.2 --save;" display="https://github.com/Spirovanni/Pirate-Castle/commit/d481422865fb0045eecc23700b50649ffd1be0db"/>
+    <hyperlink ref="J29" r:id="rId79" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/16"/>
+    <hyperlink ref="K29" r:id="rId80" display="https://github.com/Spirovanni/Pirate-Castle/commit/70338c0506ae76b4d289c0bee4a0b3d96344f399"/>
+    <hyperlink ref="F30" r:id="rId81" tooltip="18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
+    <hyperlink ref="J30" r:id="rId82" tooltip="Merged Pull Request: 18. tinymce and chart components js bundle configs" display="https://github.com/Spirovanni/Pirate-Castle/pull/17"/>
+    <hyperlink ref="K30" r:id="rId83" display="https://github.com/Spirovanni/Pirate-Castle/commit/d481422865fb0045eecc23700b50649ffd1be0db"/>
+    <hyperlink ref="F31" r:id="rId84" tooltip="18. String based lazy router loading fixes." display="https://github.com/Spirovanni/Pirate-Castle/commit/6cef9c251affc1695a2b4bda5a3fa66ac419a283"/>
+    <hyperlink ref="J31" r:id="rId85" tooltip="Merged Pull Request: 18. String based lazy router loading fixes." display="https://github.com/Spirovanni/Pirate-Castle/pull/18"/>
+    <hyperlink ref="K31" r:id="rId86" display="https://github.com/Spirovanni/Pirate-Castle/commit/fb44622459762e704b049cc0f3d672a01d5e69a8"/>
+    <hyperlink ref="F32" r:id="rId87" tooltip="19. Echarts world component js added_x000a__x000a_None" display="https://github.com/Spirovanni/Pirate-Castle/commit/3628054f0bfea6114f7867d8febf92d3ca38ca0f"/>
+    <hyperlink ref="J32" r:id="rId88" tooltip="Merged Pull Request: 19. Echarts world component js added" display="https://github.com/Spirovanni/Pirate-Castle/pull/19"/>
+    <hyperlink ref="K32" r:id="rId89" display="https://github.com/Spirovanni/Pirate-Castle/commit/6cef9c251affc1695a2b4bda5a3fa66ac419a283"/>
+    <hyperlink ref="F33" r:id="rId90" tooltip="20. Adding Doc folder_x000a__x000a_created scripts.txt file" display="https://github.com/Spirovanni/Pirate-Castle/commit/4187afd07e808429beb3e235e4bc8bff6758e488"/>
+    <hyperlink ref="J33" r:id="rId91" tooltip="Merged Pull Request: 20. Adding Doc folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/20"/>
+    <hyperlink ref="K33" r:id="rId92" display="https://github.com/Spirovanni/Pirate-Castle/commit/3628054f0bfea6114f7867d8febf92d3ca38ca0f"/>
+    <hyperlink ref="F34" r:id="rId93" tooltip="21. Updated charts folder_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
+    <hyperlink ref="J34" r:id="rId94" tooltip="Merged Pull Request: 21. Updated charts folder" display="https://github.com/Spirovanni/Pirate-Castle/pull/21"/>
+    <hyperlink ref="K34" r:id="rId95" display="https://github.com/Spirovanni/Pirate-Castle/commit/4187afd07e808429beb3e235e4bc8bff6758e488"/>
+    <hyperlink ref="F35" r:id="rId96" tooltip="22. Update &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
+    <hyperlink ref="J35" r:id="rId97" tooltip="Merged Pull Request: 22. Update &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/22"/>
+    <hyperlink ref="K35" r:id="rId98" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e453d6b28e0969123cc65cccd5220f7a7bfab0"/>
+    <hyperlink ref="F36" r:id="rId99" tooltip="23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;_x000a__x000a_Replaced &quot;ngx&quot; with &quot;jhi&quot; in selectors." display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
+    <hyperlink ref="J36" r:id="rId100" tooltip="Merged Pull Request: 23. Updated the other files in &quot;@theme/ components &amp; layouts&quot;" display="https://github.com/Spirovanni/Pirate-Castle/pull/23"/>
+    <hyperlink ref="F37" r:id="rId101" tooltip="24. Corrected Warnings in pages/charts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/charts/chartjs/chartjs-multiple-xaxis.component.ts_x000a_[16, 64]: Parentheses are required around the parameters of an arrow function definition_x000a_WARNING in ./src/ma" display="https://github.com/Spirovanni/Pirate-Castle/commit/9b2460bfab1deef0ad4a2262cca728baee354eb9"/>
+    <hyperlink ref="J37" r:id="rId102" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
+    <hyperlink ref="K37" r:id="rId103" display="https://github.com/Spirovanni/Pirate-Castle/commit/0df7406dc2e38e3a4b036b4aabad0d4be6078453"/>
+    <hyperlink ref="K36" r:id="rId104" display="https://github.com/Spirovanni/Pirate-Castle/commit/9893d85e59b5ee28753c1ae2080bf9cc42011a2e"/>
+    <hyperlink ref="F38" r:id="rId105" tooltip="25. Corrected Warnings in pages/charts/echarts folder_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/ui-features/buttons/hero-buttons/hero-buttons.component.ts_x000a_[16, 71]: Parentheses are required around the parameters of an arrow function definition_x000a_WAR" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
+    <hyperlink ref="J38" r:id="rId106" tooltip="Merged Pull Request: Sand box" display="https://github.com/Spirovanni/Pirate-Castle/pull/24"/>
+    <hyperlink ref="K38" r:id="rId107" display="https://github.com/Spirovanni/Pirate-Castle/commit/9b2460bfab1deef0ad4a2262cca728baee354eb9"/>
+    <hyperlink ref="F39" r:id="rId108" tooltip="25b. Corrected Warnings in @theme/components/tiny-mce files_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/@theme/components/tiny-mce/tiny-mce.component.ts_x000a_[20, 14]: Parentheses are required around the parameters of an arrow function definition" display="https://github.com/Spirovanni/Pirate-Castle/commit/46fd768d0688f5522aec5c767af3f2fb840d10fa"/>
+    <hyperlink ref="K39" r:id="rId109" display="https://github.com/Spirovanni/Pirate-Castle/commit/f141dd65d9d4cae1e8b0eea04951a6291cf83e15"/>
+    <hyperlink ref="J39" r:id="rId110" tooltip="Merged Pull Request: 25b. Corrected Warnings in @theme/components/tiny-mce files" display="https://github.com/Spirovanni/Pirate-Castle/pull/25"/>
+    <hyperlink ref="F40" r:id="rId111" tooltip="26. Corrected Warning in various files_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/dashboard.module.ts_x000a_[23, 1]: Consecutive blank lines are forbidden_x000a__x000a_WARNING in ./src/main/webapp/app/ngx-admin/pages/dashboard/temperature/temperature.compo" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e78f523f84a35f073a7b9e7615208f9b8c07c7"/>
+    <hyperlink ref="J40" r:id="rId112" tooltip="Merged Pull Request: 26. Corrected Warning in various files" display="https://github.com/Spirovanni/Pirate-Castle/pull/26"/>
+    <hyperlink ref="K40" r:id="rId113" display="https://github.com/Spirovanni/Pirate-Castle/commit/46fd768d0688f5522aec5c767af3f2fb840d10fa"/>
+    <hyperlink ref="F41" r:id="rId114" tooltip="27. Fixed last warnings_x000a__x000a_Ran without warnings" display="https://github.com/Spirovanni/Pirate-Castle/commit/535df5af0e73b859e37a4f1accd7af8008d3a3ce"/>
+    <hyperlink ref="J41" r:id="rId115" tooltip="Merged Pull Request: 27. Fixed last warnings" display="https://github.com/Spirovanni/Pirate-Castle/pull/27"/>
+    <hyperlink ref="K41" r:id="rId116" display="https://github.com/Spirovanni/Pirate-Castle/commit/06e78f523f84a35f073a7b9e7615208f9b8c07c7"/>
+    <hyperlink ref="I41:I48" r:id="rId117" display="https://github.com/Spirovanni/Pirate-Castle"/>
+    <hyperlink ref="F43" r:id="rId118" tooltip="29. Switched to &quot;jhi-main&quot; in index.html_x000a__x000a_Attempting to use original infastructure." display="https://github.com/Spirovanni/Pirate-Castle/commit/c3d9fc338ad245a0fde711a23669ef6cef73129d"/>
+    <hyperlink ref="F42" r:id="rId119" tooltip="28. Fixed all broken migration issues_x000a__x000a_MissionSuccess!!" display="https://github.com/Spirovanni/Pirate-Castle/commit/2fec5c3b6ad38de88615f06272c21b982356d34d"/>
+    <hyperlink ref="E42:E47" r:id="rId120" display="https://github.com/Spirovanni/Blackshields/commits?author=Spirovanni"/>
+    <hyperlink ref="I43" r:id="rId121" display="https://github.com/Spirovanni/Pirate-Castle"/>
+    <hyperlink ref="J43" r:id="rId122" tooltip="Merged Pull Request: 29. Switched to &quot;jhi-main&quot; in index.html" display="https://github.com/Spirovanni/Pirate-Castle/pull/29"/>
+    <hyperlink ref="K43" r:id="rId123" display="https://github.com/Spirovanni/Pirate-Castle/commit/2fec5c3b6ad38de88615f06272c21b982356d34d"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId120"/>
-  <drawing r:id="rId121"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" r:id="rId124"/>
+  <drawing r:id="rId125"/>
   <tableParts count="1">
-    <tablePart r:id="rId122"/>
+    <tablePart r:id="rId126"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6339,7 +5839,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C30 F6:F30">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>COUNTIF($C:$C,$C6)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6716,7 +6216,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:G50">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>(COUNTIF($C:$C,$C6)&gt;1)*($C6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
